--- a/databases/indicator_db.xlsx
+++ b/databases/indicator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzave\OneDrive - The Cooper Union for the Advancement of Science and Art\102-cooper\150-masters\sustainability\sustainability_project1\IOU-Sustainability-Model\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4003" documentId="13_ncr:1_{3FB4AC18-0CEB-AA41-999E-AC3015B7C641}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{6D277D3D-D96D-4FA6-8310-993E729014EE}"/>
+  <xr:revisionPtr revIDLastSave="4010" documentId="13_ncr:1_{3FB4AC18-0CEB-AA41-999E-AC3015B7C641}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA41C0F1-5F3A-44AD-8AAD-9FD04AF09C4B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" activeTab="2" xr2:uid="{37BFF1BD-B01D-2B41-B449-5920C9BA0A58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="830" xr2:uid="{37BFF1BD-B01D-2B41-B449-5920C9BA0A58}"/>
   </bookViews>
   <sheets>
     <sheet name="ecos" sheetId="4" r:id="rId1"/>
@@ -1549,7 +1549,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1588,6 +1587,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{9B1BB7CD-24B7-5646-A7A6-8426B3EFA124}"/>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED5AF34-56D3-1741-B11E-22652BC2223A}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="69" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="69" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8"/>
@@ -2016,26 +2016,26 @@
         <v>122</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D2" s="90">
         <v>2014</v>
       </c>
       <c r="E2" s="117">
-        <v>42.3</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G2" s="117">
-        <f t="shared" ref="G2:G5" si="0">E2</f>
-        <v>42.3</v>
+        <f>E2</f>
+        <v>2.5</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="90" t="s">
-        <v>125</v>
+      <c r="I2" s="92" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="90" customFormat="1">
@@ -2046,26 +2046,26 @@
         <v>122</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" s="90">
         <v>2015</v>
       </c>
       <c r="E3" s="117">
-        <v>35.200000000000003</v>
+        <v>2.7</v>
       </c>
       <c r="F3" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G3" s="117">
-        <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
+        <f>E3</f>
+        <v>2.7</v>
       </c>
       <c r="H3" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="90" t="s">
-        <v>125</v>
+      <c r="I3" s="92" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="90" customFormat="1">
@@ -2076,26 +2076,26 @@
         <v>122</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="90">
         <v>2016</v>
       </c>
       <c r="E4" s="117">
-        <v>33.700000000000003</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F4" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G4" s="117">
-        <f t="shared" si="0"/>
-        <v>33.700000000000003</v>
+        <f>E4</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H4" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="90" t="s">
-        <v>125</v>
+      <c r="I4" s="92" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="90" customFormat="1">
@@ -2106,26 +2106,26 @@
         <v>122</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="90">
         <v>2017</v>
       </c>
       <c r="E5" s="117">
-        <v>33.200000000000003</v>
+        <v>2.4</v>
       </c>
       <c r="F5" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="117">
-        <f t="shared" si="0"/>
-        <v>33.200000000000003</v>
+        <f>E5</f>
+        <v>2.4</v>
       </c>
       <c r="H5" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I5" s="90" t="s">
-        <v>125</v>
+      <c r="I5" s="92" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="90" customFormat="1">
@@ -2136,25 +2136,26 @@
         <v>122</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" s="90">
         <v>2018</v>
       </c>
       <c r="E6" s="117">
-        <v>30.3</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G6" s="117">
-        <v>30.3</v>
+        <f>E6</f>
+        <v>1.5</v>
       </c>
       <c r="H6" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I6" s="90" t="s">
-        <v>126</v>
+      <c r="I6" s="92" t="s">
+        <v>24</v>
       </c>
       <c r="J6" s="92"/>
     </row>
@@ -2166,20 +2167,20 @@
         <v>122</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="90">
         <v>2014</v>
       </c>
       <c r="E7" s="117">
-        <v>0.1</v>
+        <v>42.3</v>
       </c>
       <c r="F7" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G7" s="117">
-        <f t="shared" ref="G7:G10" si="1">E7</f>
-        <v>0.1</v>
+        <f>E7</f>
+        <v>42.3</v>
       </c>
       <c r="H7" s="90" t="s">
         <v>243</v>
@@ -2196,20 +2197,20 @@
         <v>122</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="90">
         <v>2015</v>
       </c>
       <c r="E8" s="117">
-        <v>0.1</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F8" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G8" s="117">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f>E8</f>
+        <v>35.200000000000003</v>
       </c>
       <c r="H8" s="90" t="s">
         <v>243</v>
@@ -2226,20 +2227,20 @@
         <v>122</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="90">
         <v>2016</v>
       </c>
       <c r="E9" s="117">
-        <v>0.1</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F9" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G9" s="117">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f>E9</f>
+        <v>33.700000000000003</v>
       </c>
       <c r="H9" s="90" t="s">
         <v>243</v>
@@ -2256,20 +2257,20 @@
         <v>122</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="90">
         <v>2017</v>
       </c>
       <c r="E10" s="117">
-        <v>0</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F10" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G10" s="117">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E10</f>
+        <v>33.200000000000003</v>
       </c>
       <c r="H10" s="90" t="s">
         <v>243</v>
@@ -2286,25 +2287,25 @@
         <v>122</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" s="90">
         <v>2018</v>
       </c>
       <c r="E11" s="117">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="F11" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="90">
-        <v>0</v>
+      <c r="G11" s="117">
+        <v>30.3</v>
       </c>
       <c r="H11" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I11" s="92" t="s">
-        <v>127</v>
+      <c r="I11" s="90" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="90" customFormat="1">
@@ -2315,26 +2316,26 @@
         <v>122</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12" s="90">
         <v>2014</v>
       </c>
       <c r="E12" s="117">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="117">
-        <f t="shared" ref="G12:G16" si="2">E12</f>
-        <v>2.5</v>
+        <f>E12</f>
+        <v>0.1</v>
       </c>
       <c r="H12" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I12" s="92" t="s">
-        <v>24</v>
+      <c r="I12" s="90" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="90" customFormat="1">
@@ -2345,26 +2346,26 @@
         <v>122</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D13" s="90">
         <v>2015</v>
       </c>
       <c r="E13" s="117">
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G13" s="117">
-        <f t="shared" si="2"/>
-        <v>2.7</v>
+        <f>E13</f>
+        <v>0.1</v>
       </c>
       <c r="H13" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I13" s="92" t="s">
-        <v>24</v>
+      <c r="I13" s="90" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1">
@@ -2375,26 +2376,26 @@
         <v>122</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14" s="90">
         <v>2016</v>
       </c>
       <c r="E14" s="117">
-        <v>2.2000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="F14" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G14" s="117">
-        <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
+        <f>E14</f>
+        <v>0.1</v>
       </c>
       <c r="H14" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I14" s="92" t="s">
-        <v>24</v>
+      <c r="I14" s="90" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1">
@@ -2405,26 +2406,26 @@
         <v>122</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" s="90">
         <v>2017</v>
       </c>
       <c r="E15" s="117">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="90" t="s">
         <v>123</v>
       </c>
       <c r="G15" s="117">
-        <f t="shared" si="2"/>
-        <v>2.4</v>
+        <f>E15</f>
+        <v>0</v>
       </c>
       <c r="H15" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I15" s="92" t="s">
-        <v>24</v>
+      <c r="I15" s="90" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="90" customFormat="1">
@@ -2435,26 +2436,25 @@
         <v>122</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" s="90">
         <v>2018</v>
       </c>
       <c r="E16" s="117">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="117">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+      <c r="G16" s="90">
+        <v>0</v>
       </c>
       <c r="H16" s="90" t="s">
         <v>243</v>
       </c>
       <c r="I16" s="92" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="86" customFormat="1" ht="15" customHeight="1">
@@ -2465,567 +2465,561 @@
         <v>254</v>
       </c>
       <c r="C17" s="99" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D17" s="99">
+        <v>2014</v>
+      </c>
+      <c r="E17" s="114">
+        <v>48573857</v>
+      </c>
+      <c r="F17" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="99" cm="1">
+        <f t="array" ref="G17">E17/VLOOKUP(D17,net_generation!$A:$D,MATCH(C17,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.26069887329655578</v>
+      </c>
+      <c r="H17" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="198" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="76" customFormat="1">
+      <c r="A18" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="76">
+        <v>2015</v>
+      </c>
+      <c r="E18" s="113">
+        <v>52793763</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="76" cm="1">
+        <f t="array" ref="G18">E18/VLOOKUP(D18,net_generation!$A:$D,MATCH(C18,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.26566694081735337</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="76" customFormat="1">
+      <c r="A19" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="76">
+        <v>2016</v>
+      </c>
+      <c r="E19" s="113">
+        <v>43199657</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="76" cm="1">
+        <f t="array" ref="G19">E19/VLOOKUP(D19,net_generation!$A:$D,MATCH(C19,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.22305106948131606</v>
+      </c>
+      <c r="H19" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="76" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="76">
+        <v>2017</v>
+      </c>
+      <c r="E20" s="113">
+        <v>42194852</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="76" cm="1">
+        <f t="array" ref="G20">E20/VLOOKUP(D20,net_generation!$A:$D,MATCH(C20,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.22306434646297132</v>
+      </c>
+      <c r="H20" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="76" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="76">
         <v>2018</v>
       </c>
-      <c r="E17" s="114">
+      <c r="E21" s="113">
+        <v>42097424</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="76" cm="1">
+        <f t="array" ref="G21">E21/VLOOKUP(D21,net_generation!$A:$D,MATCH(C21,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.21802396199923654</v>
+      </c>
+      <c r="H21" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="76" customFormat="1">
+      <c r="A22" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="76">
+        <v>2014</v>
+      </c>
+      <c r="E22" s="113">
+        <v>138347641</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="76" cm="1">
+        <f t="array" ref="G22">E22/VLOOKUP(D22,net_generation!$A:$D,MATCH(C22,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.5659154037150208</v>
+      </c>
+      <c r="H22" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="76" customFormat="1">
+      <c r="A23" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="76">
+        <v>2015</v>
+      </c>
+      <c r="E23" s="113">
+        <v>107913913</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="76" cm="1">
+        <f t="array" ref="G23">E23/VLOOKUP(D23,net_generation!$A:$D,MATCH(C23,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.49339066564861761</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="76" customFormat="1">
+      <c r="A24" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="76">
+        <v>2016</v>
+      </c>
+      <c r="E24" s="113">
+        <v>106376761</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="76" cm="1">
+        <f t="array" ref="G24">E24/VLOOKUP(D24,net_generation!$A:$D,MATCH(C24,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.48510733064277084</v>
+      </c>
+      <c r="H24" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="76" customFormat="1">
+      <c r="A25" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="76">
+        <v>2017</v>
+      </c>
+      <c r="E25" s="113">
+        <v>104619272</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="76" cm="1">
+        <f t="array" ref="G25">E25/VLOOKUP(D25,net_generation!$A:$D,MATCH(C25,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>0.46031614285651429</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="76" customFormat="1">
+      <c r="A26" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="76">
+        <v>2018</v>
+      </c>
+      <c r="E26" s="113">
         <f>105000*1000</f>
         <v>105000000</v>
       </c>
-      <c r="F17" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="99" cm="1">
-        <f t="array" ref="G17">E17/VLOOKUP(D17,net_generation!$A:$D,MATCH(C17,net_generation!$1:$1,FALSE),FALSE)</f>
+      <c r="F26" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="76" cm="1">
+        <f t="array" ref="G26">E26/VLOOKUP(D26,net_generation!$A:$D,MATCH(C26,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>0.45039634878693252</v>
       </c>
-      <c r="H17" s="99" t="s">
+      <c r="H26" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="87" t="s">
+      <c r="I26" s="92" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="76" customFormat="1">
-      <c r="A18" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="99" t="s">
+    <row r="27" spans="1:9" s="76" customFormat="1">
+      <c r="A27" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="76">
+      <c r="C27" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="76">
+        <v>2014</v>
+      </c>
+      <c r="E27" s="113">
+        <v>7138620</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="76" cm="1">
+        <f t="array" ref="G27">E27/VLOOKUP(D27,net_generation!$A:$D,MATCH(C27,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>4.0111155370209629E-2</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="76" customFormat="1">
+      <c r="A28" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="76">
+        <v>2015</v>
+      </c>
+      <c r="E28" s="113">
+        <v>7397355</v>
+      </c>
+      <c r="F28" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="76" cm="1">
+        <f t="array" ref="G28">E28/VLOOKUP(D28,net_generation!$A:$D,MATCH(C28,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>4.1088898163858717E-2</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="76" customFormat="1">
+      <c r="A29" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="76">
+        <v>2016</v>
+      </c>
+      <c r="E29" s="113">
+        <v>9836775</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="76" cm="1">
+        <f t="array" ref="G29">E29/VLOOKUP(D29,net_generation!$A:$D,MATCH(C29,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>5.2643731945379545E-2</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="76" customFormat="1">
+      <c r="A30" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="76">
         <v>2017</v>
       </c>
-      <c r="E18" s="113">
-        <v>104619272</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="76" cm="1">
-        <f t="array" ref="G18">E18/VLOOKUP(D18,net_generation!$A:$D,MATCH(C18,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.46031614285651429</v>
-      </c>
-      <c r="H18" s="76" t="s">
+      <c r="E30" s="113">
+        <v>10394551</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="76" cm="1">
+        <f t="array" ref="G30">E30/VLOOKUP(D30,net_generation!$A:$D,MATCH(C30,net_generation!$1:$1,FALSE),FALSE)</f>
+        <v>5.3379599215083957E-2</v>
+      </c>
+      <c r="H30" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I30" s="76" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="76" customFormat="1">
-      <c r="A19" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="99" t="s">
+    <row r="31" spans="1:9" s="163" customFormat="1">
+      <c r="A31" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="76">
-        <v>2016</v>
-      </c>
-      <c r="E19" s="113">
-        <v>106376761</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="76" cm="1">
-        <f t="array" ref="G19">E19/VLOOKUP(D19,net_generation!$A:$D,MATCH(C19,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.48510733064277084</v>
-      </c>
-      <c r="H19" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="76">
-        <v>2015</v>
-      </c>
-      <c r="E20" s="113">
-        <v>107913913</v>
-      </c>
-      <c r="F20" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="76" cm="1">
-        <f t="array" ref="G20">E20/VLOOKUP(D20,net_generation!$A:$D,MATCH(C20,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.49339066564861761</v>
-      </c>
-      <c r="H20" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="76" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="76">
-        <v>2014</v>
-      </c>
-      <c r="E21" s="113">
-        <v>138347641</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="76" cm="1">
-        <f t="array" ref="G21">E21/VLOOKUP(D21,net_generation!$A:$D,MATCH(C21,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.5659154037150208</v>
-      </c>
-      <c r="H21" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="76" customFormat="1">
-      <c r="A22" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="76">
+      <c r="C31" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="163">
         <v>2018</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E31" s="164">
         <f>9.7*10^6</f>
         <v>9700000</v>
       </c>
-      <c r="F22" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="51" cm="1">
-        <f t="array" ref="G22">E22/VLOOKUP(D22,net_generation!$A:$D,MATCH(C22,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>4.994233462393937E-2</v>
-      </c>
-      <c r="H22" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="76" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="76" customFormat="1">
-      <c r="A23" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="76">
-        <v>2017</v>
-      </c>
-      <c r="E23" s="113">
-        <v>10394551</v>
-      </c>
-      <c r="F23" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="76" cm="1">
-        <f t="array" ref="G23">E23/VLOOKUP(D23,net_generation!$A:$D,MATCH(C23,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>5.3379599215083957E-2</v>
-      </c>
-      <c r="H23" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="76" customFormat="1">
-      <c r="A24" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="76">
-        <v>2016</v>
-      </c>
-      <c r="E24" s="113">
-        <v>9836775</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="76" cm="1">
-        <f t="array" ref="G24">E24/VLOOKUP(D24,net_generation!$A:$D,MATCH(C24,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>5.2643731945379545E-2</v>
-      </c>
-      <c r="H24" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="76" customFormat="1">
-      <c r="A25" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="76">
-        <v>2015</v>
-      </c>
-      <c r="E25" s="113">
-        <v>7397355</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="76" cm="1">
-        <f t="array" ref="G25">E25/VLOOKUP(D25,net_generation!$A:$D,MATCH(C25,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>4.1088898163858717E-2</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="76" customFormat="1">
-      <c r="A26" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C26" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="76">
-        <v>2014</v>
-      </c>
-      <c r="E26" s="113">
-        <v>7138620</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="76" cm="1">
-        <f t="array" ref="G26">E26/VLOOKUP(D26,net_generation!$A:$D,MATCH(C26,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>4.0111155370209629E-2</v>
-      </c>
-      <c r="H26" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="76" customFormat="1">
-      <c r="A27" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="76">
-        <v>2018</v>
-      </c>
-      <c r="E27" s="113">
-        <v>42097424</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="76" cm="1">
-        <f t="array" ref="G27">E27/VLOOKUP(D27,net_generation!$A:$D,MATCH(C27,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.21802396199923654</v>
-      </c>
-      <c r="H27" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="76" customFormat="1">
-      <c r="A28" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="76">
-        <v>2017</v>
-      </c>
-      <c r="E28" s="113">
-        <v>42194852</v>
-      </c>
-      <c r="F28" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="76" cm="1">
-        <f t="array" ref="G28">E28/VLOOKUP(D28,net_generation!$A:$D,MATCH(C28,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.22306434646297132</v>
-      </c>
-      <c r="H28" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="76" customFormat="1">
-      <c r="A29" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="76">
-        <v>2016</v>
-      </c>
-      <c r="E29" s="113">
-        <v>43199657</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="76" cm="1">
-        <f t="array" ref="G29">E29/VLOOKUP(D29,net_generation!$A:$D,MATCH(C29,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.22305106948131606</v>
-      </c>
-      <c r="H29" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="76" customFormat="1">
-      <c r="A30" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="76">
-        <v>2015</v>
-      </c>
-      <c r="E30" s="113">
-        <v>52793763</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="76" cm="1">
-        <f t="array" ref="G30">E30/VLOOKUP(D30,net_generation!$A:$D,MATCH(C30,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.26566694081735337</v>
-      </c>
-      <c r="H30" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="I30" s="76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="163" customFormat="1" ht="15.6">
-      <c r="A31" s="162" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="C31" s="163" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="163">
-        <v>2014</v>
-      </c>
-      <c r="E31" s="164">
-        <v>48573857</v>
-      </c>
       <c r="F31" s="163" t="s">
         <v>129</v>
       </c>
       <c r="G31" s="163" cm="1">
         <f t="array" ref="G31">E31/VLOOKUP(D31,net_generation!$A:$D,MATCH(C31,net_generation!$1:$1,FALSE),FALSE)</f>
-        <v>0.26069887329655578</v>
+        <v>4.994233462393937E-2</v>
       </c>
       <c r="H31" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="I31" s="172" t="s">
-        <v>131</v>
+      <c r="I31" s="163" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="99" customFormat="1">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="99">
+      <c r="B32" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="120">
         <v>2014</v>
       </c>
-      <c r="E32" s="114">
-        <v>0</v>
-      </c>
-      <c r="F32" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="99" cm="1">
-        <f t="array" ref="G32">E32/(VLOOKUP(D32,net_generation!$A:$D,MATCH(C32,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I32" s="99" t="s">
-        <v>24</v>
-      </c>
+      <c r="E32" s="121" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="120">
+        <f>AVERAGE(G35:G36)</f>
+        <v>0.8534620753672022</v>
+      </c>
+      <c r="H32" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="1:9" s="76" customFormat="1">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="76">
+      <c r="B33" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="171">
         <v>2015</v>
       </c>
-      <c r="E33" s="113">
-        <v>2</v>
-      </c>
-      <c r="F33" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="99" cm="1">
-        <f t="array" ref="G33">E33/(VLOOKUP(D33,net_generation!$A:$D,MATCH(C33,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>1.0064330546672847E-2</v>
-      </c>
-      <c r="H33" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I33" s="76" t="s">
-        <v>24</v>
-      </c>
+      <c r="E33" s="123" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="120">
+        <f>AVERAGE(G35:G36)</f>
+        <v>0.8534620753672022</v>
+      </c>
+      <c r="H33" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I33" s="71"/>
     </row>
     <row r="34" spans="1:9" s="76" customFormat="1">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="76">
+      <c r="B34" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="171">
         <v>2016</v>
       </c>
-      <c r="E34" s="113">
-        <v>0</v>
-      </c>
-      <c r="F34" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="99" cm="1">
-        <f t="array" ref="G34">E34/(VLOOKUP(D34,net_generation!$A:$D,MATCH(C34,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I34" s="76" t="s">
-        <v>24</v>
-      </c>
+      <c r="E34" s="123" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="120">
+        <f>AVERAGE(G35:G36)</f>
+        <v>0.8534620753672022</v>
+      </c>
+      <c r="H34" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:9" s="76" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="75" t="s">
         <v>135</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C35" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="76">
+      <c r="D35" s="51">
         <v>2017</v>
       </c>
       <c r="E35" s="113">
-        <v>1</v>
+        <v>105.2</v>
       </c>
       <c r="F35" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G35" s="120" cm="1">
         <f t="array" ref="G35">E35/(VLOOKUP(D35,net_generation!$A:$D,MATCH(C35,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>5.2865298938119592E-3</v>
-      </c>
-      <c r="H35" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I35" s="76" t="s">
+        <v>0.55614294482901805</v>
+      </c>
+      <c r="H35" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="172" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3034,7 +3028,7 @@
         <v>135</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C36" s="76" t="s">
         <v>11</v>
@@ -3043,80 +3037,76 @@
         <v>2018</v>
       </c>
       <c r="E36" s="113">
-        <v>0</v>
+        <v>222.2</v>
       </c>
       <c r="F36" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G36" s="120" cm="1">
         <f t="array" ref="G36">E36/(VLOOKUP(D36,net_generation!$A:$D,MATCH(C36,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="99" t="s">
-        <v>238</v>
+        <v>1.1507812059053864</v>
+      </c>
+      <c r="H36" s="120" t="s">
+        <v>239</v>
       </c>
       <c r="I36" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="76" customFormat="1">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="76">
+      <c r="B37" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="71">
         <v>2014</v>
       </c>
-      <c r="E37" s="113">
-        <v>592</v>
-      </c>
-      <c r="F37" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="99" cm="1">
-        <f t="array" ref="G37">E37/(VLOOKUP(D37,net_generation!$A:$D,MATCH(C37,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>3.3263857691212166</v>
-      </c>
-      <c r="H37" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I37" s="79" t="s">
-        <v>17</v>
-      </c>
+      <c r="E37" s="123"/>
+      <c r="F37" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="120">
+        <f>AVERAGE(G38:G41)</f>
+        <v>2.1646533496665445</v>
+      </c>
+      <c r="H37" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I37" s="71"/>
     </row>
     <row r="38" spans="1:9" s="76" customFormat="1">
       <c r="A38" s="75" t="s">
         <v>135</v>
       </c>
       <c r="B38" s="76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D38" s="76">
         <v>2015</v>
       </c>
       <c r="E38" s="113">
-        <v>726</v>
+        <v>317</v>
       </c>
       <c r="F38" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G38" s="120" cm="1">
         <f t="array" ref="G38">E38/(VLOOKUP(D38,net_generation!$A:$D,MATCH(C38,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>4.0325954435012825</v>
-      </c>
-      <c r="H38" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I38" s="79" t="s">
-        <v>17</v>
+        <v>1.4493482504949273</v>
+      </c>
+      <c r="H38" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I38" s="76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="76" customFormat="1">
@@ -3124,29 +3114,29 @@
         <v>135</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D39" s="76">
         <v>2016</v>
       </c>
       <c r="E39" s="113">
-        <v>777</v>
+        <v>1195</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G39" s="120" cm="1">
         <f t="array" ref="G39">E39/(VLOOKUP(D39,net_generation!$A:$D,MATCH(C39,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>4.1582916882372434</v>
-      </c>
-      <c r="H39" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I39" s="79" t="s">
-        <v>17</v>
+        <v>5.4495291515607542</v>
+      </c>
+      <c r="H39" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="76" customFormat="1">
@@ -3154,29 +3144,29 @@
         <v>135</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C40" s="76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D40" s="76">
         <v>2017</v>
       </c>
       <c r="E40" s="113">
-        <v>746</v>
+        <v>126</v>
       </c>
       <c r="F40" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G40" s="120" cm="1">
         <f t="array" ref="G40">E40/(VLOOKUP(D40,net_generation!$A:$D,MATCH(C40,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>3.8309669185761495</v>
-      </c>
-      <c r="H40" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="79" t="s">
-        <v>17</v>
+        <v>0.55438957747594353</v>
+      </c>
+      <c r="H40" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="76" customFormat="1">
@@ -3184,119 +3174,111 @@
         <v>135</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D41" s="76">
         <v>2018</v>
       </c>
       <c r="E41" s="113">
-        <v>805</v>
+        <v>281</v>
       </c>
       <c r="F41" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G41" s="120" cm="1">
         <f t="array" ref="G41">E41/(VLOOKUP(D41,net_generation!$A:$D,MATCH(C41,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>4.1446989043578553</v>
-      </c>
-      <c r="H41" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I41" s="79" t="s">
-        <v>17</v>
+        <v>1.2053464191345529</v>
+      </c>
+      <c r="H41" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" s="76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="76" customFormat="1">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="76">
+      <c r="B42" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="71">
         <v>2014</v>
       </c>
-      <c r="E42" s="113">
-        <v>26</v>
-      </c>
-      <c r="F42" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="99" cm="1">
-        <f t="array" ref="G42">E42/(VLOOKUP(D42,net_generation!$A:$D,MATCH(C42,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0.10635382280635014</v>
-      </c>
-      <c r="H42" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I42" s="79" t="s">
-        <v>139</v>
-      </c>
+      <c r="E42" s="123"/>
+      <c r="F42" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="120">
+        <f>AVERAGE(G44:G46)</f>
+        <v>10.510937171243803</v>
+      </c>
+      <c r="H42" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" spans="1:9" s="76" customFormat="1">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="76">
+      <c r="B43" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="71">
         <v>2015</v>
       </c>
-      <c r="E43" s="113">
-        <v>23</v>
-      </c>
-      <c r="F43" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="99" cm="1">
-        <f t="array" ref="G43">E43/(VLOOKUP(D43,net_generation!$A:$D,MATCH(C43,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0.10515775949963195</v>
-      </c>
-      <c r="H43" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I43" s="79" t="s">
-        <v>140</v>
-      </c>
+      <c r="E43" s="123"/>
+      <c r="F43" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="120">
+        <f>AVERAGE(G44:G46)</f>
+        <v>10.510937171243803</v>
+      </c>
+      <c r="H43" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" spans="1:9" s="76" customFormat="1">
       <c r="A44" s="75" t="s">
         <v>135</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D44" s="76">
         <v>2016</v>
       </c>
       <c r="E44" s="113">
-        <v>23</v>
+        <v>3668</v>
       </c>
       <c r="F44" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G44" s="120" cm="1">
         <f t="array" ref="G44">E44/(VLOOKUP(D44,net_generation!$A:$D,MATCH(C44,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0.10488633513464213</v>
-      </c>
-      <c r="H44" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I44" s="79" t="s">
-        <v>141</v>
+        <v>19.630133735462302</v>
+      </c>
+      <c r="H44" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I44" s="76" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="76" customFormat="1">
@@ -3304,29 +3286,29 @@
         <v>135</v>
       </c>
       <c r="B45" s="76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C45" s="76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D45" s="76">
         <v>2017</v>
       </c>
       <c r="E45" s="113">
-        <v>18</v>
+        <v>854</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G45" s="120" cm="1">
         <f t="array" ref="G45">E45/(VLOOKUP(D45,net_generation!$A:$D,MATCH(C45,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>7.9198511067991931E-2</v>
-      </c>
-      <c r="H45" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I45" s="79" t="s">
-        <v>142</v>
+        <v>4.3855841132225626</v>
+      </c>
+      <c r="H45" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I45" s="76" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="81" customFormat="1">
@@ -3334,29 +3316,29 @@
         <v>135</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D46" s="81">
         <v>2018</v>
       </c>
       <c r="E46" s="115">
-        <v>28</v>
+        <v>1460</v>
       </c>
       <c r="F46" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" s="99" cm="1">
+        <v>129</v>
+      </c>
+      <c r="G46" s="120" cm="1">
         <f t="array" ref="G46">E46/(VLOOKUP(D46,net_generation!$A:$D,MATCH(C46,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0.12010569300984868</v>
-      </c>
-      <c r="H46" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="I46" s="84" t="s">
-        <v>19</v>
+        <v>7.517093665046545</v>
+      </c>
+      <c r="H46" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="81" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="69" customFormat="1">
@@ -3407,7 +3389,7 @@
         <v>129</v>
       </c>
       <c r="G48" s="120">
-        <f t="shared" ref="G48:G49" si="3">AVERAGE($G$50:$G$51)</f>
+        <f>AVERAGE($G$50:$G$51)</f>
         <v>479.40494421325656</v>
       </c>
       <c r="H48" s="120" t="s">
@@ -3435,7 +3417,7 @@
         <v>129</v>
       </c>
       <c r="G49" s="120">
-        <f t="shared" si="3"/>
+        <f>AVERAGE($G$50:$G$51)</f>
         <v>479.40494421325656</v>
       </c>
       <c r="H49" s="120" t="s">
@@ -3789,118 +3771,124 @@
       </c>
     </row>
     <row r="62" spans="1:11" s="69" customFormat="1">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="71">
+      <c r="B62" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="76">
         <v>2014</v>
       </c>
-      <c r="E62" s="123" t="s">
-        <v>252</v>
-      </c>
-      <c r="F62" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="G62" s="71">
-        <f>AVERAGE(G65:G66)</f>
-        <v>0.8534620753672022</v>
-      </c>
-      <c r="H62" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="I62" s="71"/>
+      <c r="E62" s="113">
+        <v>0</v>
+      </c>
+      <c r="F62" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="76" cm="1">
+        <f t="array" ref="G62">E62/(VLOOKUP(D62,net_generation!$A:$D,MATCH(C62,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="76" t="s">
+        <v>24</v>
+      </c>
       <c r="J62" s="44"/>
       <c r="K62" s="44"/>
     </row>
     <row r="63" spans="1:11" s="44" customFormat="1">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="171">
+      <c r="B63" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="76">
         <v>2015</v>
       </c>
-      <c r="E63" s="123" t="s">
-        <v>252</v>
-      </c>
-      <c r="F63" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="120">
-        <f>AVERAGE(G65:G66)</f>
-        <v>0.8534620753672022</v>
-      </c>
-      <c r="H63" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I63" s="71"/>
+      <c r="E63" s="113">
+        <v>2</v>
+      </c>
+      <c r="F63" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="G63" s="99" cm="1">
+        <f t="array" ref="G63">E63/(VLOOKUP(D63,net_generation!$A:$D,MATCH(C63,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
+        <v>1.0064330546672847E-2</v>
+      </c>
+      <c r="H63" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I63" s="76" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="64" spans="1:11" s="44" customFormat="1">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="171">
+      <c r="B64" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="76">
         <v>2016</v>
       </c>
-      <c r="E64" s="123" t="s">
-        <v>252</v>
-      </c>
-      <c r="F64" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="120">
-        <f>AVERAGE(G65:G66)</f>
-        <v>0.8534620753672022</v>
-      </c>
-      <c r="H64" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I64" s="71"/>
-    </row>
-    <row r="65" spans="1:9" s="76" customFormat="1" ht="15.6">
+      <c r="E64" s="113">
+        <v>0</v>
+      </c>
+      <c r="F64" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="99" cm="1">
+        <f t="array" ref="G64">E64/(VLOOKUP(D64,net_generation!$A:$D,MATCH(C64,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I64" s="76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="76" customFormat="1">
       <c r="A65" s="75" t="s">
         <v>135</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C65" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="51">
+      <c r="D65" s="76">
         <v>2017</v>
       </c>
       <c r="E65" s="113">
-        <v>105.2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G65" s="99" cm="1">
         <f t="array" ref="G65">E65/(VLOOKUP(D65,net_generation!$A:$D,MATCH(C65,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0.55614294482901805</v>
-      </c>
-      <c r="H65" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I65" s="173" t="s">
+        <v>5.2865298938119592E-3</v>
+      </c>
+      <c r="H65" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I65" s="76" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3909,7 +3897,7 @@
         <v>135</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C66" s="76" t="s">
         <v>11</v>
@@ -3918,54 +3906,58 @@
         <v>2018</v>
       </c>
       <c r="E66" s="113">
-        <v>222.2</v>
+        <v>0</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G66" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G66" s="99" cm="1">
         <f t="array" ref="G66">E66/(VLOOKUP(D66,net_generation!$A:$D,MATCH(C66,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>1.1507812059053864</v>
-      </c>
-      <c r="H66" s="120" t="s">
-        <v>239</v>
+        <v>0</v>
+      </c>
+      <c r="H66" s="99" t="s">
+        <v>238</v>
       </c>
       <c r="I66" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="44" customFormat="1">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="71">
+      <c r="B67" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="76">
         <v>2014</v>
       </c>
-      <c r="E67" s="123"/>
-      <c r="F67" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="G67" s="120">
-        <f>AVERAGE(G68:G71)</f>
-        <v>2.1646533496665445</v>
-      </c>
-      <c r="H67" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I67" s="71"/>
+      <c r="E67" s="113">
+        <v>26</v>
+      </c>
+      <c r="F67" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="99" cm="1">
+        <f t="array" ref="G67">E67/(VLOOKUP(D67,net_generation!$A:$D,MATCH(C67,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
+        <v>0.10635382280635014</v>
+      </c>
+      <c r="H67" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I67" s="79" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="68" spans="1:9" s="76" customFormat="1">
       <c r="A68" s="75" t="s">
         <v>135</v>
       </c>
       <c r="B68" s="76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C68" s="76" t="s">
         <v>18</v>
@@ -3974,20 +3966,20 @@
         <v>2015</v>
       </c>
       <c r="E68" s="113">
-        <v>317</v>
+        <v>23</v>
       </c>
       <c r="F68" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G68" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G68" s="99" cm="1">
         <f t="array" ref="G68">E68/(VLOOKUP(D68,net_generation!$A:$D,MATCH(C68,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>1.4493482504949273</v>
-      </c>
-      <c r="H68" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I68" s="76" t="s">
-        <v>144</v>
+        <v>0.10515775949963195</v>
+      </c>
+      <c r="H68" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I68" s="79" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="76" customFormat="1">
@@ -3995,7 +3987,7 @@
         <v>135</v>
       </c>
       <c r="B69" s="76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C69" s="76" t="s">
         <v>18</v>
@@ -4004,20 +3996,20 @@
         <v>2016</v>
       </c>
       <c r="E69" s="113">
-        <v>1195</v>
+        <v>23</v>
       </c>
       <c r="F69" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G69" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G69" s="99" cm="1">
         <f t="array" ref="G69">E69/(VLOOKUP(D69,net_generation!$A:$D,MATCH(C69,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>5.4495291515607542</v>
-      </c>
-      <c r="H69" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I69" s="76" t="s">
-        <v>144</v>
+        <v>0.10488633513464213</v>
+      </c>
+      <c r="H69" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I69" s="79" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="76" customFormat="1">
@@ -4025,7 +4017,7 @@
         <v>135</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C70" s="76" t="s">
         <v>18</v>
@@ -4034,20 +4026,20 @@
         <v>2017</v>
       </c>
       <c r="E70" s="113">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="F70" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G70" s="99" cm="1">
         <f t="array" ref="G70">E70/(VLOOKUP(D70,net_generation!$A:$D,MATCH(C70,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>0.55438957747594353</v>
-      </c>
-      <c r="H70" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I70" s="76" t="s">
-        <v>144</v>
+        <v>7.9198511067991931E-2</v>
+      </c>
+      <c r="H70" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I70" s="79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="76" customFormat="1">
@@ -4055,7 +4047,7 @@
         <v>135</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C71" s="76" t="s">
         <v>18</v>
@@ -4064,80 +4056,88 @@
         <v>2018</v>
       </c>
       <c r="E71" s="113">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="F71" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G71" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G71" s="99" cm="1">
         <f t="array" ref="G71">E71/(VLOOKUP(D71,net_generation!$A:$D,MATCH(C71,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>1.2053464191345529</v>
-      </c>
-      <c r="H71" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I71" s="76" t="s">
-        <v>144</v>
+        <v>0.12010569300984868</v>
+      </c>
+      <c r="H71" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I71" s="79" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="44" customFormat="1">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="71">
+      <c r="B72" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="76">
         <v>2014</v>
       </c>
-      <c r="E72" s="123"/>
-      <c r="F72" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="G72" s="120">
-        <f>AVERAGE(G74:G76)</f>
-        <v>10.510937171243803</v>
-      </c>
-      <c r="H72" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I72" s="71"/>
+      <c r="E72" s="113">
+        <v>592</v>
+      </c>
+      <c r="F72" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="99" cm="1">
+        <f t="array" ref="G72">E72/(VLOOKUP(D72,net_generation!$A:$D,MATCH(C72,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
+        <v>3.3263857691212166</v>
+      </c>
+      <c r="H72" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I72" s="79" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="73" spans="1:9" s="44" customFormat="1">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C73" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="71">
+      <c r="B73" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="76">
         <v>2015</v>
       </c>
-      <c r="E73" s="123"/>
-      <c r="F73" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="G73" s="120">
-        <f>AVERAGE(G74:G76)</f>
-        <v>10.510937171243803</v>
-      </c>
-      <c r="H73" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I73" s="71"/>
+      <c r="E73" s="113">
+        <v>726</v>
+      </c>
+      <c r="F73" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="99" cm="1">
+        <f t="array" ref="G73">E73/(VLOOKUP(D73,net_generation!$A:$D,MATCH(C73,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
+        <v>4.0325954435012825</v>
+      </c>
+      <c r="H73" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I73" s="79" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="74" spans="1:9" s="76" customFormat="1">
       <c r="A74" s="75" t="s">
         <v>135</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C74" s="76" t="s">
         <v>15</v>
@@ -4146,20 +4146,20 @@
         <v>2016</v>
       </c>
       <c r="E74" s="113">
-        <v>3668</v>
+        <v>777</v>
       </c>
       <c r="F74" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G74" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G74" s="99" cm="1">
         <f t="array" ref="G74">E74/(VLOOKUP(D74,net_generation!$A:$D,MATCH(C74,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>19.630133735462302</v>
-      </c>
-      <c r="H74" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I74" s="76" t="s">
-        <v>146</v>
+        <v>4.1582916882372434</v>
+      </c>
+      <c r="H74" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I74" s="79" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="76" customFormat="1">
@@ -4167,7 +4167,7 @@
         <v>135</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C75" s="76" t="s">
         <v>15</v>
@@ -4176,20 +4176,20 @@
         <v>2017</v>
       </c>
       <c r="E75" s="113">
-        <v>854</v>
+        <v>746</v>
       </c>
       <c r="F75" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="G75" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G75" s="99" cm="1">
         <f t="array" ref="G75">E75/(VLOOKUP(D75,net_generation!$A:$D,MATCH(C75,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>4.3855841132225626</v>
-      </c>
-      <c r="H75" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I75" s="76" t="s">
-        <v>146</v>
+        <v>3.8309669185761495</v>
+      </c>
+      <c r="H75" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I75" s="79" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="81" customFormat="1">
@@ -4197,7 +4197,7 @@
         <v>135</v>
       </c>
       <c r="B76" s="81" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C76" s="81" t="s">
         <v>15</v>
@@ -4206,955 +4206,962 @@
         <v>2018</v>
       </c>
       <c r="E76" s="115">
-        <v>1460</v>
+        <v>805</v>
       </c>
       <c r="F76" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76" s="120" cm="1">
+        <v>137</v>
+      </c>
+      <c r="G76" s="99" cm="1">
         <f t="array" ref="G76">E76/(VLOOKUP(D76,net_generation!$A:$D,MATCH(C76,net_generation!$1:$1,FALSE),FALSE)/10^6)</f>
-        <v>7.517093665046545</v>
-      </c>
-      <c r="H76" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="I76" s="81" t="s">
-        <v>146</v>
+        <v>4.1446989043578553</v>
+      </c>
+      <c r="H76" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="I76" s="84" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="86" customFormat="1">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="86">
+      <c r="B77" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="99">
         <v>2014</v>
       </c>
-      <c r="E77" s="124">
-        <v>1752000000000</v>
-      </c>
-      <c r="F77" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="G77" s="86" cm="1">
-        <f t="array" ref="G77">E77/(VLOOKUP(D77,net_generation!$A:$D,MATCH(C77,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>9.4030915851620698</v>
-      </c>
-      <c r="H77" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I77" s="86" t="s">
+      <c r="E77" s="127">
+        <v>1.6</v>
+      </c>
+      <c r="F77" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="114">
+        <v>1.6</v>
+      </c>
+      <c r="H77" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I77" s="99" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="90" customFormat="1">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="90">
+      <c r="B78" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="76">
         <v>2015</v>
       </c>
-      <c r="E78" s="125">
-        <v>1857000000000</v>
-      </c>
-      <c r="F78" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G78" s="86" cm="1">
-        <f t="array" ref="G78">E78/(VLOOKUP(D78,net_generation!$A:$D,MATCH(C78,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>9.3447309125857387</v>
-      </c>
-      <c r="H78" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I78" s="90" t="s">
+      <c r="E78" s="130">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F78" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="114">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H78" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I78" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="90" customFormat="1">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="90">
+      <c r="B79" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="76">
         <v>2016</v>
       </c>
-      <c r="E79" s="125">
-        <v>1960000000000</v>
-      </c>
-      <c r="F79" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G79" s="86" cm="1">
-        <f t="array" ref="G79">E79/(VLOOKUP(D79,net_generation!$A:$D,MATCH(C79,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>10.119989984720933</v>
-      </c>
-      <c r="H79" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I79" s="90" t="s">
+      <c r="E79" s="130">
+        <v>1.5</v>
+      </c>
+      <c r="F79" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="114">
+        <v>1.5</v>
+      </c>
+      <c r="H79" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I79" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="90" customFormat="1">
-      <c r="A80" s="89" t="s">
+      <c r="A80" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C80" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="90">
+      <c r="B80" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="76">
         <v>2017</v>
       </c>
-      <c r="E80" s="125">
-        <v>2025000000000</v>
-      </c>
-      <c r="F80" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G80" s="86" cm="1">
-        <f t="array" ref="G80">E80/(VLOOKUP(D80,net_generation!$A:$D,MATCH(C80,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>10.705223034969217</v>
-      </c>
-      <c r="H80" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I80" s="90" t="s">
+      <c r="E80" s="130">
+        <v>1.5</v>
+      </c>
+      <c r="F80" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="114">
+        <v>1.5</v>
+      </c>
+      <c r="H80" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I80" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="90" customFormat="1">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C81" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="90">
+      <c r="B81" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="76">
         <v>2018</v>
       </c>
-      <c r="E81" s="125">
-        <v>1960000000000</v>
-      </c>
-      <c r="F81" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G81" s="86" cm="1">
-        <f t="array" ref="G81">E81/(VLOOKUP(D81,net_generation!$A:$D,MATCH(C81,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>10.150905326618171</v>
-      </c>
-      <c r="H81" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I81" s="90" t="s">
+      <c r="E81" s="130">
+        <v>1.5</v>
+      </c>
+      <c r="F81" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" s="114">
+        <v>1.5</v>
+      </c>
+      <c r="H81" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I81" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="90" customFormat="1">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="90">
+      <c r="B82" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="76">
         <v>2014</v>
       </c>
-      <c r="E82" s="117">
-        <v>13849574000000</v>
-      </c>
-      <c r="F82" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G82" s="86" cm="1">
-        <f t="array" ref="G82">E82/(VLOOKUP(D82,net_generation!$A:$D,MATCH(C82,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>77.819300442552702</v>
-      </c>
-      <c r="H82" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I82" s="92" t="s">
-        <v>151</v>
+      <c r="E82" s="113">
+        <f>93/5799*100</f>
+        <v>1.603724780134506</v>
+      </c>
+      <c r="F82" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G82" s="114">
+        <v>1.603724780134506</v>
+      </c>
+      <c r="H82" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I82" s="79" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="90" customFormat="1">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="90">
+      <c r="B83" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="76">
         <v>2015</v>
       </c>
-      <c r="E83" s="117">
-        <v>13440737000000</v>
-      </c>
-      <c r="F83" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G83" s="86" cm="1">
-        <f t="array" ref="G83">E83/(VLOOKUP(D83,net_generation!$A:$D,MATCH(C83,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>74.65710025275358</v>
-      </c>
-      <c r="H83" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I83" s="92" t="s">
-        <v>152</v>
+      <c r="E83" s="113">
+        <f>79/6250*100</f>
+        <v>1.264</v>
+      </c>
+      <c r="F83" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G83" s="114">
+        <v>1.264</v>
+      </c>
+      <c r="H83" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I83" s="79" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="90" customFormat="1">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="90">
+      <c r="B84" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="76">
         <v>2016</v>
       </c>
-      <c r="E84" s="117">
-        <v>13456099000000</v>
-      </c>
-      <c r="F84" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G84" s="86" cm="1">
-        <f t="array" ref="G84">E84/(VLOOKUP(D84,net_generation!$A:$D,MATCH(C84,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>72.013365029340392</v>
-      </c>
-      <c r="H84" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I84" s="92" t="s">
-        <v>153</v>
+      <c r="E84" s="113">
+        <f>74/5341*100</f>
+        <v>1.3855083317730763</v>
+      </c>
+      <c r="F84" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G84" s="114">
+        <v>1.3855083317730763</v>
+      </c>
+      <c r="H84" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I84" s="79" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="90" customFormat="1">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B85" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="90">
+      <c r="B85" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="76">
         <v>2017</v>
       </c>
-      <c r="E85" s="126">
-        <v>15833678000000</v>
-      </c>
-      <c r="F85" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G85" s="86" cm="1">
-        <f t="array" ref="G85">E85/(VLOOKUP(D85,net_generation!$A:$D,MATCH(C85,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>81.311389567542847</v>
-      </c>
-      <c r="H85" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I85" s="92" t="s">
-        <v>154</v>
+      <c r="E85" s="113">
+        <f>71/5293*100</f>
+        <v>1.3413942943510295</v>
+      </c>
+      <c r="F85" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G85" s="114">
+        <v>1.3413942943510295</v>
+      </c>
+      <c r="H85" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I85" s="79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="90" customFormat="1">
-      <c r="A86" s="89" t="s">
+      <c r="A86" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C86" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="90">
+      <c r="B86" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="76">
         <v>2018</v>
       </c>
-      <c r="E86" s="117">
-        <v>18986062000000</v>
-      </c>
-      <c r="F86" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G86" s="86" cm="1">
-        <f t="array" ref="G86">E86/(VLOOKUP(D86,net_generation!$A:$D,MATCH(C86,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>97.753429030397896</v>
-      </c>
-      <c r="H86" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I86" s="92" t="s">
-        <v>23</v>
+      <c r="E86" s="113">
+        <f>84/4991*100</f>
+        <v>1.6830294530154277</v>
+      </c>
+      <c r="F86" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G86" s="114">
+        <v>1.6830294530154277</v>
+      </c>
+      <c r="H86" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="I86" s="79" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="90" customFormat="1">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="90">
+      <c r="B87" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="76">
         <v>2014</v>
       </c>
-      <c r="E87" s="117">
-        <v>5799000000000</v>
-      </c>
-      <c r="F87" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G87" s="86" cm="1">
-        <f t="array" ref="G87">E87/(VLOOKUP(D87,net_generation!$A:$D,MATCH(C87,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>23.720993017462479</v>
-      </c>
-      <c r="H87" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I87" s="92" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="90" customFormat="1">
-      <c r="A88" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B88" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C88" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="90">
-        <v>2015</v>
-      </c>
-      <c r="E88" s="117">
-        <v>6250000000000</v>
-      </c>
-      <c r="F88" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G88" s="86" cm="1">
-        <f t="array" ref="G88">E88/(VLOOKUP(D88,net_generation!$A:$D,MATCH(C88,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>28.575478124899984</v>
-      </c>
-      <c r="H88" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I88" s="92" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="90" customFormat="1">
-      <c r="A89" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="90">
-        <v>2016</v>
-      </c>
-      <c r="E89" s="117">
-        <v>5341000000000</v>
-      </c>
-      <c r="F89" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G89" s="86" cm="1">
-        <f t="array" ref="G89">E89/(VLOOKUP(D89,net_generation!$A:$D,MATCH(C89,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>24.356431128440157</v>
-      </c>
-      <c r="H89" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I89" s="92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="90" customFormat="1">
-      <c r="A90" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B90" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C90" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="90">
-        <v>2017</v>
-      </c>
-      <c r="E90" s="117">
-        <v>5293000000000</v>
-      </c>
-      <c r="F90" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G90" s="86" cm="1">
-        <f t="array" ref="G90">E90/(VLOOKUP(D90,net_generation!$A:$D,MATCH(C90,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>23.288762171271181</v>
-      </c>
-      <c r="H90" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I90" s="92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="95" customFormat="1">
-      <c r="A91" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" s="90">
-        <v>2018</v>
-      </c>
-      <c r="E91" s="117">
-        <v>4991000000000</v>
-      </c>
-      <c r="F91" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="G91" s="86" cm="1">
-        <f t="array" ref="G91">E91/(VLOOKUP(D91,net_generation!$A:$D,MATCH(C91,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
-        <v>21.408839779005525</v>
-      </c>
-      <c r="H91" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="I91" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="J91" s="90"/>
-    </row>
-    <row r="92" spans="1:10" s="99" customFormat="1">
-      <c r="A92" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C92" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="76">
-        <v>2014</v>
-      </c>
-      <c r="E92" s="130">
-        <v>1.6</v>
-      </c>
-      <c r="F92" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G92" s="113">
-        <v>1.6</v>
-      </c>
-      <c r="H92" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I92" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="J92" s="76"/>
-    </row>
-    <row r="93" spans="1:10" s="76" customFormat="1">
-      <c r="A93" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="76">
-        <v>2015</v>
-      </c>
-      <c r="E93" s="130">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F93" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G93" s="113">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H93" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I93" s="76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="76" customFormat="1">
-      <c r="A94" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="76">
-        <v>2016</v>
-      </c>
-      <c r="E94" s="130">
-        <v>1.5</v>
-      </c>
-      <c r="F94" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G94" s="113">
-        <v>1.5</v>
-      </c>
-      <c r="H94" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I94" s="76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="76" customFormat="1">
-      <c r="A95" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B95" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C95" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="76">
-        <v>2017</v>
-      </c>
-      <c r="E95" s="130">
-        <v>1.5</v>
-      </c>
-      <c r="F95" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G95" s="113">
-        <v>1.5</v>
-      </c>
-      <c r="H95" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I95" s="76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="76" customFormat="1">
-      <c r="A96" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C96" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="76">
-        <v>2018</v>
-      </c>
-      <c r="E96" s="130">
-        <v>1.5</v>
-      </c>
-      <c r="F96" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G96" s="113">
-        <v>1.5</v>
-      </c>
-      <c r="H96" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I96" s="76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="76" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A97" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="76">
-        <v>2014</v>
-      </c>
-      <c r="E97" s="113">
+      <c r="E87" s="113">
         <f>233408/13849574 * 100</f>
         <v>1.6853081546046109</v>
       </c>
-      <c r="F97" s="131" t="s">
+      <c r="F87" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="G97" s="113">
+      <c r="G87" s="114">
         <v>1.6853081546046109</v>
       </c>
-      <c r="H97" s="132" t="s">
+      <c r="H87" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="I97" s="79" t="s">
+      <c r="I87" s="79" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="76" customFormat="1">
-      <c r="A98" s="75" t="s">
+    <row r="88" spans="1:10" s="90" customFormat="1">
+      <c r="A88" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="B88" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="76">
+      <c r="C88" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="76">
         <v>2015</v>
       </c>
-      <c r="E98" s="113">
+      <c r="E88" s="113">
         <f>250513/13440737 *100</f>
         <v>1.8638338061372675</v>
       </c>
-      <c r="F98" s="131" t="s">
+      <c r="F88" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="G98" s="113">
+      <c r="G88" s="114">
         <v>1.8638338061372675</v>
       </c>
-      <c r="H98" s="132" t="s">
+      <c r="H88" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="I98" s="79" t="s">
+      <c r="I88" s="79" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="76" customFormat="1">
-      <c r="A99" s="75" t="s">
+    <row r="89" spans="1:10" s="90" customFormat="1">
+      <c r="A89" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B99" s="76" t="s">
+      <c r="B89" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="76">
+      <c r="C89" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="76">
         <v>2016</v>
       </c>
-      <c r="E99" s="113">
+      <c r="E89" s="113">
         <f>234351/13456099 *100</f>
         <v>1.741596877371369</v>
       </c>
-      <c r="F99" s="131" t="s">
+      <c r="F89" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="G99" s="113">
+      <c r="G89" s="114">
         <v>1.741596877371369</v>
       </c>
-      <c r="H99" s="132" t="s">
+      <c r="H89" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="I99" s="79" t="s">
+      <c r="I89" s="79" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="76" customFormat="1">
-      <c r="A100" s="75" t="s">
+    <row r="90" spans="1:10" s="90" customFormat="1">
+      <c r="A90" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B100" s="76" t="s">
+      <c r="B90" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="C100" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="76">
+      <c r="C90" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="76">
         <v>2017</v>
       </c>
-      <c r="E100" s="113">
+      <c r="E90" s="113">
         <f>221516/15833678 *100</f>
         <v>1.3990179666404736</v>
       </c>
-      <c r="F100" s="131" t="s">
+      <c r="F90" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="G100" s="113">
+      <c r="G90" s="114">
         <v>1.3990179666404736</v>
       </c>
-      <c r="H100" s="132" t="s">
+      <c r="H90" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="I100" s="79" t="s">
+      <c r="I90" s="79" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="76" customFormat="1">
-      <c r="A101" s="75" t="s">
+    <row r="91" spans="1:10" s="95" customFormat="1">
+      <c r="A91" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B101" s="76" t="s">
+      <c r="B91" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="C101" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="76">
+      <c r="C91" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="76">
         <v>2018</v>
       </c>
-      <c r="E101" s="113">
+      <c r="E91" s="113">
         <f>228422/18986062 *100</f>
         <v>1.2031036241217372</v>
       </c>
-      <c r="F101" s="131" t="s">
+      <c r="F91" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="G101" s="113">
+      <c r="G91" s="114">
         <v>1.2031036241217372</v>
       </c>
-      <c r="H101" s="132" t="s">
+      <c r="H91" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="I101" s="79" t="s">
+      <c r="I91" s="79" t="s">
         <v>23</v>
       </c>
+      <c r="J91" s="90"/>
+    </row>
+    <row r="92" spans="1:10" s="99" customFormat="1">
+      <c r="A92" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="90">
+        <v>2014</v>
+      </c>
+      <c r="E92" s="125">
+        <v>1752000000000</v>
+      </c>
+      <c r="F92" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G92" s="90" cm="1">
+        <f t="array" ref="G92">E92/(VLOOKUP(D92,net_generation!$A:$D,MATCH(C92,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>9.4030915851620698</v>
+      </c>
+      <c r="H92" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I92" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="J92" s="76"/>
+    </row>
+    <row r="93" spans="1:10" s="76" customFormat="1">
+      <c r="A93" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="90">
+        <v>2015</v>
+      </c>
+      <c r="E93" s="125">
+        <v>1857000000000</v>
+      </c>
+      <c r="F93" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G93" s="90" cm="1">
+        <f t="array" ref="G93">E93/(VLOOKUP(D93,net_generation!$A:$D,MATCH(C93,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>9.3447309125857387</v>
+      </c>
+      <c r="H93" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I93" s="90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="76" customFormat="1">
+      <c r="A94" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="90">
+        <v>2016</v>
+      </c>
+      <c r="E94" s="125">
+        <v>1960000000000</v>
+      </c>
+      <c r="F94" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" s="90" cm="1">
+        <f t="array" ref="G94">E94/(VLOOKUP(D94,net_generation!$A:$D,MATCH(C94,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>10.119989984720933</v>
+      </c>
+      <c r="H94" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I94" s="90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="76" customFormat="1">
+      <c r="A95" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="90">
+        <v>2017</v>
+      </c>
+      <c r="E95" s="125">
+        <v>2025000000000</v>
+      </c>
+      <c r="F95" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G95" s="90" cm="1">
+        <f t="array" ref="G95">E95/(VLOOKUP(D95,net_generation!$A:$D,MATCH(C95,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>10.705223034969217</v>
+      </c>
+      <c r="H95" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I95" s="90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="76" customFormat="1">
+      <c r="A96" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C96" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="90">
+        <v>2018</v>
+      </c>
+      <c r="E96" s="125">
+        <v>1960000000000</v>
+      </c>
+      <c r="F96" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G96" s="90" cm="1">
+        <f t="array" ref="G96">E96/(VLOOKUP(D96,net_generation!$A:$D,MATCH(C96,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>10.150905326618171</v>
+      </c>
+      <c r="H96" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I96" s="90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="76" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A97" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="90">
+        <v>2014</v>
+      </c>
+      <c r="E97" s="117">
+        <v>5799000000000</v>
+      </c>
+      <c r="F97" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97" s="90" cm="1">
+        <f t="array" ref="G97">E97/(VLOOKUP(D97,net_generation!$A:$D,MATCH(C97,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>23.720993017462479</v>
+      </c>
+      <c r="H97" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I97" s="92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="76" customFormat="1">
+      <c r="A98" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="90">
+        <v>2015</v>
+      </c>
+      <c r="E98" s="117">
+        <v>6250000000000</v>
+      </c>
+      <c r="F98" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G98" s="90" cm="1">
+        <f t="array" ref="G98">E98/(VLOOKUP(D98,net_generation!$A:$D,MATCH(C98,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>28.575478124899984</v>
+      </c>
+      <c r="H98" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I98" s="92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="76" customFormat="1">
+      <c r="A99" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="90">
+        <v>2016</v>
+      </c>
+      <c r="E99" s="117">
+        <v>5341000000000</v>
+      </c>
+      <c r="F99" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" s="90" cm="1">
+        <f t="array" ref="G99">E99/(VLOOKUP(D99,net_generation!$A:$D,MATCH(C99,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>24.356431128440157</v>
+      </c>
+      <c r="H99" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I99" s="92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="76" customFormat="1">
+      <c r="A100" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="90">
+        <v>2017</v>
+      </c>
+      <c r="E100" s="117">
+        <v>5293000000000</v>
+      </c>
+      <c r="F100" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G100" s="90" cm="1">
+        <f t="array" ref="G100">E100/(VLOOKUP(D100,net_generation!$A:$D,MATCH(C100,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>23.288762171271181</v>
+      </c>
+      <c r="H100" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I100" s="92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="76" customFormat="1">
+      <c r="A101" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="90">
+        <v>2018</v>
+      </c>
+      <c r="E101" s="117">
+        <v>4991000000000</v>
+      </c>
+      <c r="F101" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G101" s="90" cm="1">
+        <f t="array" ref="G101">E101/(VLOOKUP(D101,net_generation!$A:$D,MATCH(C101,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>21.408839779005525</v>
+      </c>
+      <c r="H101" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I101" s="92" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="102" spans="1:9" s="76" customFormat="1">
-      <c r="A102" s="75" t="s">
+      <c r="A102" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B102" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="76">
+      <c r="B102" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="90">
         <v>2014</v>
       </c>
-      <c r="E102" s="113">
-        <f>93/5799*100</f>
-        <v>1.603724780134506</v>
-      </c>
-      <c r="F102" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G102" s="113">
-        <v>1.603724780134506</v>
-      </c>
-      <c r="H102" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I102" s="79" t="s">
-        <v>139</v>
+      <c r="E102" s="117">
+        <v>13849574000000</v>
+      </c>
+      <c r="F102" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G102" s="90" cm="1">
+        <f t="array" ref="G102">E102/(VLOOKUP(D102,net_generation!$A:$D,MATCH(C102,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>77.819300442552702</v>
+      </c>
+      <c r="H102" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I102" s="92" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="76" customFormat="1">
-      <c r="A103" s="75" t="s">
+      <c r="A103" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B103" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C103" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" s="76">
+      <c r="B103" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="90">
         <v>2015</v>
       </c>
-      <c r="E103" s="113">
-        <f>79/6250*100</f>
-        <v>1.264</v>
-      </c>
-      <c r="F103" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G103" s="113">
-        <v>1.264</v>
-      </c>
-      <c r="H103" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I103" s="79" t="s">
-        <v>140</v>
+      <c r="E103" s="117">
+        <v>13440737000000</v>
+      </c>
+      <c r="F103" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G103" s="90" cm="1">
+        <f t="array" ref="G103">E103/(VLOOKUP(D103,net_generation!$A:$D,MATCH(C103,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>74.65710025275358</v>
+      </c>
+      <c r="H103" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I103" s="92" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="76" customFormat="1">
-      <c r="A104" s="75" t="s">
+      <c r="A104" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C104" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" s="76">
+      <c r="B104" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="90">
         <v>2016</v>
       </c>
-      <c r="E104" s="113">
-        <f>74/5341*100</f>
-        <v>1.3855083317730763</v>
-      </c>
-      <c r="F104" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G104" s="113">
-        <v>1.3855083317730763</v>
-      </c>
-      <c r="H104" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I104" s="79" t="s">
-        <v>141</v>
+      <c r="E104" s="117">
+        <v>13456099000000</v>
+      </c>
+      <c r="F104" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G104" s="90" cm="1">
+        <f t="array" ref="G104">E104/(VLOOKUP(D104,net_generation!$A:$D,MATCH(C104,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>72.013365029340392</v>
+      </c>
+      <c r="H104" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I104" s="92" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="76" customFormat="1">
-      <c r="A105" s="75" t="s">
+      <c r="A105" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C105" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="76">
+      <c r="B105" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="90">
         <v>2017</v>
       </c>
-      <c r="E105" s="113">
-        <f>71/5293*100</f>
-        <v>1.3413942943510295</v>
-      </c>
-      <c r="F105" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G105" s="113">
-        <v>1.3413942943510295</v>
-      </c>
-      <c r="H105" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="I105" s="79" t="s">
-        <v>142</v>
+      <c r="E105" s="126">
+        <v>15833678000000</v>
+      </c>
+      <c r="F105" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="G105" s="90" cm="1">
+        <f t="array" ref="G105">E105/(VLOOKUP(D105,net_generation!$A:$D,MATCH(C105,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>81.311389567542847</v>
+      </c>
+      <c r="H105" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="I105" s="92" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="81" customFormat="1">
-      <c r="A106" s="80" t="s">
+      <c r="A106" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="B106" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="C106" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" s="81">
+      <c r="B106" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="95">
         <v>2018</v>
       </c>
-      <c r="E106" s="115">
-        <f>84/4991*100</f>
-        <v>1.6830294530154277</v>
-      </c>
-      <c r="F106" s="133" t="s">
-        <v>156</v>
-      </c>
-      <c r="G106" s="115">
-        <v>1.6830294530154277</v>
-      </c>
-      <c r="H106" s="134" t="s">
-        <v>156</v>
-      </c>
-      <c r="I106" s="84" t="s">
-        <v>19</v>
+      <c r="E106" s="118">
+        <v>18986062000000</v>
+      </c>
+      <c r="F106" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="G106" s="95" cm="1">
+        <f t="array" ref="G106">E106/(VLOOKUP(D106,net_generation!$A:$D,MATCH(C106,net_generation!$1:$1,FALSE),FALSE)*1000)</f>
+        <v>97.753429030397896</v>
+      </c>
+      <c r="H106" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="I106" s="97" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I106" xr:uid="{3614E37E-F4C3-4B0E-9466-023FE8460AE8}"/>
+  <autoFilter ref="A1:I106" xr:uid="{3614E37E-F4C3-4B0E-9466-023FE8460AE8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I106">
+      <sortCondition ref="A2:A106"/>
+      <sortCondition ref="B2:B106"/>
+      <sortCondition ref="C2:C106" customList="nee,duk,exc"/>
+      <sortCondition ref="D2:D106"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:J21">
     <sortCondition descending="1" ref="A17"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I16" r:id="rId1" xr:uid="{34D2E7DD-E715-4B28-B985-4D381DA1B5BD}"/>
-    <hyperlink ref="I14" r:id="rId2" xr:uid="{6702E583-B39A-B048-8CFF-0745B279AA4C}"/>
-    <hyperlink ref="I10" r:id="rId3" display="http://www.nexteraenergy.com/sustainability/overview/about-this-report/by-the-numbers.html" xr:uid="{167C8664-AF29-664F-8264-5B7814E5A9A4}"/>
-    <hyperlink ref="I87" r:id="rId4" xr:uid="{792E7F79-31ED-4EFE-98A9-92FD35885F63}"/>
-    <hyperlink ref="I88" r:id="rId5" xr:uid="{84F51E96-B639-4720-826D-534256AEF578}"/>
-    <hyperlink ref="I90" r:id="rId6" xr:uid="{F78428F1-116A-47CF-AE59-260652F0B575}"/>
-    <hyperlink ref="I91" r:id="rId7" xr:uid="{3C651A37-6F67-42BD-ADEE-422F2CD50DE5}"/>
-    <hyperlink ref="I89" r:id="rId8" xr:uid="{93A1BA7D-5BF1-4879-BD34-28EFEF4E6ADD}"/>
-    <hyperlink ref="I86" r:id="rId9" xr:uid="{5F984559-B689-4D98-9F66-FB31534F4036}"/>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{34D2E7DD-E715-4B28-B985-4D381DA1B5BD}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{6702E583-B39A-B048-8CFF-0745B279AA4C}"/>
+    <hyperlink ref="I15" r:id="rId3" display="http://www.nexteraenergy.com/sustainability/overview/about-this-report/by-the-numbers.html" xr:uid="{167C8664-AF29-664F-8264-5B7814E5A9A4}"/>
+    <hyperlink ref="I97" r:id="rId4" xr:uid="{792E7F79-31ED-4EFE-98A9-92FD35885F63}"/>
+    <hyperlink ref="I98" r:id="rId5" xr:uid="{84F51E96-B639-4720-826D-534256AEF578}"/>
+    <hyperlink ref="I100" r:id="rId6" xr:uid="{F78428F1-116A-47CF-AE59-260652F0B575}"/>
+    <hyperlink ref="I101" r:id="rId7" xr:uid="{3C651A37-6F67-42BD-ADEE-422F2CD50DE5}"/>
+    <hyperlink ref="I99" r:id="rId8" xr:uid="{93A1BA7D-5BF1-4879-BD34-28EFEF4E6ADD}"/>
+    <hyperlink ref="I106" r:id="rId9" xr:uid="{5F984559-B689-4D98-9F66-FB31534F4036}"/>
     <hyperlink ref="I2:I4" r:id="rId10" display="https://www.exeloncorp.com/sustainability/interactive-csr?year=2015&amp;page=78" xr:uid="{10AE4339-3501-4562-A773-2B1248276E46}"/>
-    <hyperlink ref="I101" r:id="rId11" xr:uid="{8EDBF17F-7C19-4699-8AE6-6C74202D49C7}"/>
+    <hyperlink ref="I91" r:id="rId11" xr:uid="{8EDBF17F-7C19-4699-8AE6-6C74202D49C7}"/>
     <hyperlink ref="I10:I11" r:id="rId12" display="https://www.exeloncorp.com/sustainability/interactive-csr?year=2015&amp;page=78" xr:uid="{A549E395-662B-4170-875C-E93C429B00F1}"/>
-    <hyperlink ref="I102" r:id="rId13" xr:uid="{70001B76-F677-406F-B9B1-BC88FF8E6B41}"/>
-    <hyperlink ref="I103" r:id="rId14" xr:uid="{2F39148C-EF20-4F41-B8AF-8578834578BF}"/>
-    <hyperlink ref="I105" r:id="rId15" xr:uid="{E49F34BD-2071-41F8-937D-FD05BA00C67D}"/>
-    <hyperlink ref="I106" r:id="rId16" xr:uid="{AEAD4E2A-2E4C-4587-93B3-6A37391D9EA0}"/>
-    <hyperlink ref="I104" r:id="rId17" xr:uid="{FB5BE655-778A-4D6B-9CB9-E0E40CC4EB4C}"/>
-    <hyperlink ref="I37" r:id="rId18" xr:uid="{9716A8B1-D099-4A18-859A-DD88A5F3CECC}"/>
-    <hyperlink ref="I38" r:id="rId19" xr:uid="{560B16C4-A0A4-4437-BEBC-64E182AA62C4}"/>
-    <hyperlink ref="I40" r:id="rId20" xr:uid="{8D0A228C-7CEA-4398-9D81-E8216DEE5994}"/>
-    <hyperlink ref="I41" r:id="rId21" xr:uid="{274D911F-5F72-4EA8-8F7F-C183E3A5E54A}"/>
-    <hyperlink ref="I39" r:id="rId22" xr:uid="{CF80821D-B943-479C-BA10-D21B8D2C7C19}"/>
-    <hyperlink ref="I42" r:id="rId23" xr:uid="{99DBE994-18C2-4DE3-8A0B-4F5C5AE1B864}"/>
-    <hyperlink ref="I43" r:id="rId24" xr:uid="{278D648C-7B77-4BB4-B705-2082D0D35664}"/>
-    <hyperlink ref="I45" r:id="rId25" xr:uid="{97A61A2D-10E9-499B-911B-A807988FD035}"/>
-    <hyperlink ref="I46" r:id="rId26" xr:uid="{C6476C8A-B51F-4BC7-AC94-B624E07BA670}"/>
-    <hyperlink ref="I44" r:id="rId27" xr:uid="{D4524B02-77C9-4D14-9A93-B99F3B8CFAD2}"/>
-    <hyperlink ref="I11" r:id="rId28" xr:uid="{AAB7525C-1F8A-4A79-9232-65086B3F6C92}"/>
-    <hyperlink ref="I31" r:id="rId29" location="overlay-context=content/benchmarking-air-emissions-past-reports" xr:uid="{190F4296-A555-8144-BB49-4227623DC022}"/>
-    <hyperlink ref="I65" r:id="rId30" xr:uid="{7D6CC500-C72F-0C44-B7F2-7CB689BADCD3}"/>
+    <hyperlink ref="I82" r:id="rId13" xr:uid="{70001B76-F677-406F-B9B1-BC88FF8E6B41}"/>
+    <hyperlink ref="I83" r:id="rId14" xr:uid="{2F39148C-EF20-4F41-B8AF-8578834578BF}"/>
+    <hyperlink ref="I85" r:id="rId15" xr:uid="{E49F34BD-2071-41F8-937D-FD05BA00C67D}"/>
+    <hyperlink ref="I86" r:id="rId16" xr:uid="{AEAD4E2A-2E4C-4587-93B3-6A37391D9EA0}"/>
+    <hyperlink ref="I84" r:id="rId17" xr:uid="{FB5BE655-778A-4D6B-9CB9-E0E40CC4EB4C}"/>
+    <hyperlink ref="I72" r:id="rId18" xr:uid="{9716A8B1-D099-4A18-859A-DD88A5F3CECC}"/>
+    <hyperlink ref="I73" r:id="rId19" xr:uid="{560B16C4-A0A4-4437-BEBC-64E182AA62C4}"/>
+    <hyperlink ref="I75" r:id="rId20" xr:uid="{8D0A228C-7CEA-4398-9D81-E8216DEE5994}"/>
+    <hyperlink ref="I76" r:id="rId21" xr:uid="{274D911F-5F72-4EA8-8F7F-C183E3A5E54A}"/>
+    <hyperlink ref="I74" r:id="rId22" xr:uid="{CF80821D-B943-479C-BA10-D21B8D2C7C19}"/>
+    <hyperlink ref="I67" r:id="rId23" xr:uid="{99DBE994-18C2-4DE3-8A0B-4F5C5AE1B864}"/>
+    <hyperlink ref="I68" r:id="rId24" xr:uid="{278D648C-7B77-4BB4-B705-2082D0D35664}"/>
+    <hyperlink ref="I70" r:id="rId25" xr:uid="{97A61A2D-10E9-499B-911B-A807988FD035}"/>
+    <hyperlink ref="I71" r:id="rId26" xr:uid="{C6476C8A-B51F-4BC7-AC94-B624E07BA670}"/>
+    <hyperlink ref="I69" r:id="rId27" xr:uid="{D4524B02-77C9-4D14-9A93-B99F3B8CFAD2}"/>
+    <hyperlink ref="I16" r:id="rId28" xr:uid="{AAB7525C-1F8A-4A79-9232-65086B3F6C92}"/>
+    <hyperlink ref="I17" r:id="rId29" location="overlay-context=content/benchmarking-air-emissions-past-reports" xr:uid="{190F4296-A555-8144-BB49-4227623DC022}"/>
+    <hyperlink ref="I35" r:id="rId30" xr:uid="{7D6CC500-C72F-0C44-B7F2-7CB689BADCD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId31"/>
@@ -42614,7 +42621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F531FF2-20C0-0344-9800-E5889E169A8D}">
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -42662,411 +42669,411 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="176" customFormat="1">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:10" s="175" customFormat="1">
+      <c r="A2" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="176">
+      <c r="C2" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="175">
         <v>2018</v>
       </c>
-      <c r="E2" s="183">
+      <c r="E2" s="182">
         <v>0.194412</v>
       </c>
-      <c r="G2" s="176">
+      <c r="G2" s="175">
         <f>E2*100</f>
         <v>19.441199999999998</v>
       </c>
-      <c r="H2" s="177" t="s">
+      <c r="H2" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="177" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="177" customFormat="1">
-      <c r="A3" s="179" t="s">
+    <row r="3" spans="1:10" s="176" customFormat="1">
+      <c r="A3" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="177">
+      <c r="C3" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="176">
         <v>2017</v>
       </c>
-      <c r="E3" s="185">
+      <c r="E3" s="184">
         <v>0.19065499999999999</v>
       </c>
-      <c r="G3" s="177">
+      <c r="G3" s="176">
         <f>E3*100</f>
         <v>19.0655</v>
       </c>
-      <c r="H3" s="177" t="s">
+      <c r="H3" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="181" t="s">
+      <c r="I3" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="177" customFormat="1">
-      <c r="A4" s="179" t="s">
+    <row r="4" spans="1:10" s="176" customFormat="1">
+      <c r="A4" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="177">
+      <c r="C4" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="176">
         <v>2016</v>
       </c>
-      <c r="E4" s="185">
+      <c r="E4" s="184">
         <v>0.119634</v>
       </c>
-      <c r="G4" s="177">
+      <c r="G4" s="176">
         <f t="shared" ref="G4:G16" si="0">E4*100</f>
         <v>11.9634</v>
       </c>
-      <c r="H4" s="177" t="s">
+      <c r="H4" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="181" t="s">
+      <c r="I4" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="177" customFormat="1">
-      <c r="A5" s="179" t="s">
+    <row r="5" spans="1:10" s="176" customFormat="1">
+      <c r="A5" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="177">
+      <c r="C5" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="176">
         <v>2015</v>
       </c>
-      <c r="E5" s="185">
+      <c r="E5" s="184">
         <v>0.12191</v>
       </c>
-      <c r="G5" s="177">
+      <c r="G5" s="176">
         <f t="shared" si="0"/>
         <v>12.191000000000001</v>
       </c>
-      <c r="H5" s="177" t="s">
+      <c r="H5" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="181" t="s">
+      <c r="I5" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="177" customFormat="1">
-      <c r="A6" s="179" t="s">
+    <row r="6" spans="1:10" s="176" customFormat="1">
+      <c r="A6" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="177">
+      <c r="C6" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="176">
         <v>2014</v>
       </c>
-      <c r="E6" s="185">
+      <c r="E6" s="184">
         <v>0.12377000000000001</v>
       </c>
-      <c r="G6" s="177">
+      <c r="G6" s="176">
         <f t="shared" si="0"/>
         <v>12.377000000000001</v>
       </c>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I6" s="181" t="s">
+      <c r="I6" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="177" customFormat="1">
-      <c r="A7" s="179" t="s">
+    <row r="7" spans="1:10" s="176" customFormat="1">
+      <c r="A7" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="177">
+      <c r="C7" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="176">
         <v>2018</v>
       </c>
-      <c r="E7" s="185">
+      <c r="E7" s="184">
         <v>6.0844000000000002E-2</v>
       </c>
-      <c r="G7" s="177">
+      <c r="G7" s="176">
         <f t="shared" si="0"/>
         <v>6.0844000000000005</v>
       </c>
-      <c r="H7" s="177" t="s">
+      <c r="H7" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="181" t="s">
+      <c r="I7" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="J7" s="186"/>
-    </row>
-    <row r="8" spans="1:10" s="177" customFormat="1">
-      <c r="A8" s="179" t="s">
+      <c r="J7" s="185"/>
+    </row>
+    <row r="8" spans="1:10" s="176" customFormat="1">
+      <c r="A8" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="177">
+      <c r="C8" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="176">
         <v>2017</v>
       </c>
-      <c r="E8" s="185">
+      <c r="E8" s="184">
         <v>7.3289000000000007E-2</v>
       </c>
-      <c r="G8" s="177">
+      <c r="G8" s="176">
         <f t="shared" si="0"/>
         <v>7.3289000000000009</v>
       </c>
-      <c r="H8" s="177" t="s">
+      <c r="H8" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="181" t="s">
+      <c r="I8" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="186"/>
-    </row>
-    <row r="9" spans="1:10" s="177" customFormat="1">
-      <c r="A9" s="179" t="s">
+      <c r="J8" s="185"/>
+    </row>
+    <row r="9" spans="1:10" s="176" customFormat="1">
+      <c r="A9" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="177">
+      <c r="C9" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="176">
         <v>2016</v>
       </c>
-      <c r="E9" s="185">
+      <c r="E9" s="184">
         <v>5.2446E-2</v>
       </c>
-      <c r="G9" s="177">
+      <c r="G9" s="176">
         <f t="shared" si="0"/>
         <v>5.2446000000000002</v>
       </c>
-      <c r="H9" s="177" t="s">
+      <c r="H9" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="181" t="s">
+      <c r="I9" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="186"/>
-    </row>
-    <row r="10" spans="1:10" s="177" customFormat="1">
-      <c r="A10" s="179" t="s">
+      <c r="J9" s="185"/>
+    </row>
+    <row r="10" spans="1:10" s="176" customFormat="1">
+      <c r="A10" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="177">
+      <c r="C10" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="176">
         <v>2015</v>
       </c>
-      <c r="E10" s="185">
+      <c r="E10" s="184">
         <v>7.0884000000000003E-2</v>
       </c>
-      <c r="G10" s="177">
+      <c r="G10" s="176">
         <f t="shared" si="0"/>
         <v>7.0884</v>
       </c>
-      <c r="H10" s="177" t="s">
+      <c r="H10" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="181" t="s">
+      <c r="I10" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="177" customFormat="1">
-      <c r="A11" s="179" t="s">
+    <row r="11" spans="1:10" s="176" customFormat="1">
+      <c r="A11" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="177">
+      <c r="C11" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="176">
         <v>2014</v>
       </c>
-      <c r="E11" s="185">
+      <c r="E11" s="184">
         <v>4.6066999999999997E-2</v>
       </c>
-      <c r="G11" s="177">
+      <c r="G11" s="176">
         <f t="shared" si="0"/>
         <v>4.6067</v>
       </c>
-      <c r="H11" s="177" t="s">
+      <c r="H11" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="181" t="s">
+      <c r="I11" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="177" customFormat="1">
-      <c r="A12" s="179" t="s">
+    <row r="12" spans="1:10" s="176" customFormat="1">
+      <c r="A12" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="177">
+      <c r="C12" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="176">
         <v>2018</v>
       </c>
-      <c r="E12" s="185">
+      <c r="E12" s="184">
         <v>1.2937000000000001E-2</v>
       </c>
-      <c r="G12" s="177">
+      <c r="G12" s="176">
         <f t="shared" si="0"/>
         <v>1.2937000000000001</v>
       </c>
-      <c r="H12" s="177" t="s">
+      <c r="H12" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="181" t="s">
+      <c r="I12" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="177" customFormat="1">
-      <c r="A13" s="179" t="s">
+    <row r="13" spans="1:10" s="176" customFormat="1">
+      <c r="A13" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="177">
+      <c r="C13" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="176">
         <v>2017</v>
       </c>
-      <c r="E13" s="185">
+      <c r="E13" s="184">
         <v>9.0230000000000005E-2</v>
       </c>
-      <c r="G13" s="177">
+      <c r="G13" s="176">
         <f t="shared" si="0"/>
         <v>9.0229999999999997</v>
       </c>
-      <c r="H13" s="177" t="s">
+      <c r="H13" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="181" t="s">
+      <c r="I13" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="177" customFormat="1">
-      <c r="A14" s="179" t="s">
+    <row r="14" spans="1:10" s="176" customFormat="1">
+      <c r="A14" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="177">
+      <c r="C14" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="176">
         <v>2016</v>
       </c>
-      <c r="E14" s="185">
+      <c r="E14" s="184">
         <v>4.3890999999999999E-2</v>
       </c>
-      <c r="G14" s="177">
+      <c r="G14" s="176">
         <f t="shared" si="0"/>
         <v>4.3891</v>
       </c>
-      <c r="H14" s="177" t="s">
+      <c r="H14" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="181" t="s">
+      <c r="I14" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="177" customFormat="1">
-      <c r="A15" s="179" t="s">
+    <row r="15" spans="1:10" s="176" customFormat="1">
+      <c r="A15" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="177">
+      <c r="C15" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="176">
         <v>2015</v>
       </c>
-      <c r="E15" s="185">
+      <c r="E15" s="184">
         <v>8.7970000000000007E-2</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="176">
         <f t="shared" si="0"/>
         <v>8.7970000000000006</v>
       </c>
-      <c r="H15" s="177" t="s">
+      <c r="H15" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="181" t="s">
+      <c r="I15" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="187" customFormat="1">
-      <c r="A16" s="177" t="s">
+    <row r="16" spans="1:10" s="186" customFormat="1">
+      <c r="A16" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="177">
+      <c r="C16" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="176">
         <v>2014</v>
       </c>
-      <c r="E16" s="185">
+      <c r="E16" s="184">
         <v>7.1789000000000006E-2</v>
       </c>
-      <c r="G16" s="177">
+      <c r="G16" s="176">
         <f t="shared" si="0"/>
         <v>7.1789000000000005</v>
       </c>
-      <c r="H16" s="177" t="s">
+      <c r="H16" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="181" t="s">
+      <c r="I16" s="180" t="s">
         <v>159</v>
       </c>
     </row>
@@ -43480,408 +43487,408 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="177" customFormat="1">
-      <c r="A32" s="177" t="s">
+    <row r="32" spans="1:9" s="176" customFormat="1">
+      <c r="A32" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="177">
+      <c r="C32" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="176">
         <v>2018</v>
       </c>
-      <c r="E32" s="180">
+      <c r="E32" s="179">
         <v>2.0371950000000001</v>
       </c>
-      <c r="G32" s="177">
+      <c r="G32" s="176">
         <f t="shared" ref="G32:G33" si="2">E32</f>
         <v>2.0371950000000001</v>
       </c>
-      <c r="H32" s="177" t="s">
+      <c r="H32" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="181" t="s">
+      <c r="I32" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="177" customFormat="1">
-      <c r="A33" s="177" t="s">
+    <row r="33" spans="1:9" s="176" customFormat="1">
+      <c r="A33" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="177">
+      <c r="C33" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="176">
         <v>2017</v>
       </c>
-      <c r="E33" s="180">
+      <c r="E33" s="179">
         <v>2.4680589999999998</v>
       </c>
-      <c r="G33" s="177">
+      <c r="G33" s="176">
         <f t="shared" si="2"/>
         <v>2.4680589999999998</v>
       </c>
-      <c r="H33" s="177" t="s">
+      <c r="H33" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I33" s="181" t="s">
+      <c r="I33" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="177" customFormat="1">
-      <c r="A34" s="177" t="s">
+    <row r="34" spans="1:9" s="176" customFormat="1">
+      <c r="A34" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="177">
+      <c r="C34" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="176">
         <v>2016</v>
       </c>
-      <c r="E34" s="180">
+      <c r="E34" s="179">
         <v>2.6971780000000001</v>
       </c>
-      <c r="G34" s="177">
+      <c r="G34" s="176">
         <f t="shared" ref="G34:G46" si="3">E34</f>
         <v>2.6971780000000001</v>
       </c>
-      <c r="H34" s="177" t="s">
+      <c r="H34" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I34" s="181" t="s">
+      <c r="I34" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="177" customFormat="1">
-      <c r="A35" s="177" t="s">
+    <row r="35" spans="1:9" s="176" customFormat="1">
+      <c r="A35" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="177">
+      <c r="C35" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="176">
         <v>2015</v>
       </c>
-      <c r="E35" s="180">
+      <c r="E35" s="179">
         <v>2.6537169999999999</v>
       </c>
-      <c r="G35" s="177">
+      <c r="G35" s="176">
         <f t="shared" si="3"/>
         <v>2.6537169999999999</v>
       </c>
-      <c r="H35" s="177" t="s">
+      <c r="H35" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I35" s="181" t="s">
+      <c r="I35" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="177" customFormat="1">
-      <c r="A36" s="177" t="s">
+    <row r="36" spans="1:9" s="176" customFormat="1">
+      <c r="A36" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="177">
+      <c r="C36" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="176">
         <v>2014</v>
       </c>
-      <c r="E36" s="180">
+      <c r="E36" s="179">
         <v>2.762251</v>
       </c>
-      <c r="G36" s="177">
+      <c r="G36" s="176">
         <f t="shared" si="3"/>
         <v>2.762251</v>
       </c>
-      <c r="H36" s="177" t="s">
+      <c r="H36" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="181" t="s">
+      <c r="I36" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="177" customFormat="1">
-      <c r="A37" s="177" t="s">
+    <row r="37" spans="1:9" s="176" customFormat="1">
+      <c r="A37" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="177" t="s">
+      <c r="B37" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="177">
+      <c r="C37" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="176">
         <v>2018</v>
       </c>
-      <c r="E37" s="180">
+      <c r="E37" s="179">
         <v>2.3181639999999999</v>
       </c>
-      <c r="G37" s="177">
+      <c r="G37" s="176">
         <f t="shared" si="3"/>
         <v>2.3181639999999999</v>
       </c>
-      <c r="H37" s="177" t="s">
+      <c r="H37" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="181" t="s">
+      <c r="I37" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="177" customFormat="1">
-      <c r="A38" s="177" t="s">
+    <row r="38" spans="1:9" s="176" customFormat="1">
+      <c r="A38" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="177">
+      <c r="C38" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="176">
         <v>2017</v>
       </c>
-      <c r="E38" s="180">
+      <c r="E38" s="179">
         <v>2.3041999999999998</v>
       </c>
-      <c r="G38" s="177">
+      <c r="G38" s="176">
         <f t="shared" si="3"/>
         <v>2.3041999999999998</v>
       </c>
-      <c r="H38" s="177" t="s">
+      <c r="H38" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="181" t="s">
+      <c r="I38" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="177" customFormat="1">
-      <c r="A39" s="177" t="s">
+    <row r="39" spans="1:9" s="176" customFormat="1">
+      <c r="A39" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="177">
+      <c r="C39" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="176">
         <v>2016</v>
       </c>
-      <c r="E39" s="180">
+      <c r="E39" s="179">
         <v>2.2354690000000002</v>
       </c>
-      <c r="G39" s="177">
+      <c r="G39" s="176">
         <f t="shared" si="3"/>
         <v>2.2354690000000002</v>
       </c>
-      <c r="H39" s="177" t="s">
+      <c r="H39" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="181" t="s">
+      <c r="I39" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="177" customFormat="1">
-      <c r="A40" s="177" t="s">
+    <row r="40" spans="1:9" s="176" customFormat="1">
+      <c r="A40" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="177">
+      <c r="C40" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="176">
         <v>2015</v>
       </c>
-      <c r="E40" s="180">
+      <c r="E40" s="179">
         <v>2.0497139999999998</v>
       </c>
-      <c r="G40" s="177">
+      <c r="G40" s="176">
         <f t="shared" si="3"/>
         <v>2.0497139999999998</v>
       </c>
-      <c r="H40" s="177" t="s">
+      <c r="H40" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I40" s="181" t="s">
+      <c r="I40" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="177" customFormat="1">
-      <c r="A41" s="177" t="s">
+    <row r="41" spans="1:9" s="176" customFormat="1">
+      <c r="A41" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="177">
+      <c r="C41" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="176">
         <v>2014</v>
       </c>
-      <c r="E41" s="180">
+      <c r="E41" s="179">
         <v>1.953125</v>
       </c>
-      <c r="G41" s="177">
+      <c r="G41" s="176">
         <f t="shared" si="3"/>
         <v>1.953125</v>
       </c>
-      <c r="H41" s="177" t="s">
+      <c r="H41" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I41" s="181" t="s">
+      <c r="I41" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="177" customFormat="1">
-      <c r="A42" s="177" t="s">
+    <row r="42" spans="1:9" s="176" customFormat="1">
+      <c r="A42" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="177">
+      <c r="C42" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="176">
         <v>2018</v>
       </c>
-      <c r="E42" s="180">
+      <c r="E42" s="179">
         <v>2.8898060000000001</v>
       </c>
-      <c r="G42" s="177">
+      <c r="G42" s="176">
         <f t="shared" si="3"/>
         <v>2.8898060000000001</v>
       </c>
-      <c r="H42" s="177" t="s">
+      <c r="H42" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="181" t="s">
+      <c r="I42" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="177" customFormat="1">
-      <c r="A43" s="177" t="s">
+    <row r="43" spans="1:9" s="176" customFormat="1">
+      <c r="A43" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="177">
+      <c r="C43" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="176">
         <v>2017</v>
       </c>
-      <c r="E43" s="180">
+      <c r="E43" s="179">
         <v>2.9086310000000002</v>
       </c>
-      <c r="G43" s="177">
+      <c r="G43" s="176">
         <f t="shared" si="3"/>
         <v>2.9086310000000002</v>
       </c>
-      <c r="H43" s="177" t="s">
+      <c r="H43" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I43" s="181" t="s">
+      <c r="I43" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="177" customFormat="1">
-      <c r="A44" s="177" t="s">
+    <row r="44" spans="1:9" s="176" customFormat="1">
+      <c r="A44" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="177">
+      <c r="C44" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="176">
         <v>2016</v>
       </c>
-      <c r="E44" s="180">
+      <c r="E44" s="179">
         <v>3.4472659999999999</v>
       </c>
-      <c r="G44" s="177">
+      <c r="G44" s="176">
         <f t="shared" si="3"/>
         <v>3.4472659999999999</v>
       </c>
-      <c r="H44" s="177" t="s">
+      <c r="H44" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I44" s="181" t="s">
+      <c r="I44" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="177" customFormat="1">
-      <c r="A45" s="177" t="s">
+    <row r="45" spans="1:9" s="176" customFormat="1">
+      <c r="A45" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="177" t="s">
+      <c r="B45" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="177">
+      <c r="C45" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="176">
         <v>2015</v>
       </c>
-      <c r="E45" s="180">
+      <c r="E45" s="179">
         <v>2.6980580000000001</v>
       </c>
-      <c r="G45" s="177">
+      <c r="G45" s="176">
         <f t="shared" si="3"/>
         <v>2.6980580000000001</v>
       </c>
-      <c r="H45" s="177" t="s">
+      <c r="H45" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I45" s="181" t="s">
+      <c r="I45" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="177" customFormat="1">
-      <c r="A46" s="177" t="s">
+    <row r="46" spans="1:9" s="176" customFormat="1">
+      <c r="A46" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="177">
+      <c r="C46" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="176">
         <v>2014</v>
       </c>
-      <c r="E46" s="180">
+      <c r="E46" s="179">
         <v>2.8399679999999998</v>
       </c>
-      <c r="G46" s="177">
+      <c r="G46" s="176">
         <f t="shared" si="3"/>
         <v>2.8399679999999998</v>
       </c>
-      <c r="H46" s="177" t="s">
+      <c r="H46" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I46" s="181" t="s">
+      <c r="I46" s="180" t="s">
         <v>159</v>
       </c>
     </row>
@@ -44276,7 +44283,7 @@
       <c r="D61" s="76">
         <v>2014</v>
       </c>
-      <c r="E61" s="174">
+      <c r="E61" s="173">
         <v>0.26790000000000003</v>
       </c>
       <c r="G61" s="76">
@@ -44290,409 +44297,409 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="176" customFormat="1">
-      <c r="A62" s="176" t="s">
+    <row r="62" spans="1:9" s="175" customFormat="1">
+      <c r="A62" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="176" t="s">
+      <c r="B62" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="176">
+      <c r="C62" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="175">
         <v>2018</v>
       </c>
-      <c r="E62" s="188">
+      <c r="E62" s="187">
         <v>3732000000</v>
       </c>
-      <c r="G62" s="182" cm="1">
+      <c r="G62" s="181" cm="1">
         <f t="array" ref="G62">E62/VLOOKUP(D62,net_generation!$A:$D,MATCH(C62,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>19.328152387213784</v>
       </c>
-      <c r="H62" s="176" t="s">
+      <c r="H62" s="175" t="s">
         <v>246</v>
       </c>
-      <c r="I62" s="178" t="s">
+      <c r="I62" s="177" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="177" customFormat="1">
-      <c r="A63" s="177" t="s">
+    <row r="63" spans="1:9" s="176" customFormat="1">
+      <c r="A63" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B63" s="177" t="s">
+      <c r="B63" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="177">
+      <c r="C63" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="176">
         <v>2017</v>
       </c>
-      <c r="E63" s="189">
+      <c r="E63" s="188">
         <v>4071000000</v>
       </c>
-      <c r="G63" s="184" cm="1">
+      <c r="G63" s="183" cm="1">
         <f t="array" ref="G63">E63/VLOOKUP(D63,net_generation!$A:$D,MATCH(C63,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>21.521463197708485</v>
       </c>
-      <c r="H63" s="177" t="s">
+      <c r="H63" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I63" s="181" t="s">
+      <c r="I63" s="180" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="177" customFormat="1">
-      <c r="A64" s="177" t="s">
+    <row r="64" spans="1:9" s="176" customFormat="1">
+      <c r="A64" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="177" t="s">
+      <c r="B64" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="177">
+      <c r="C64" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="176">
         <v>2016</v>
       </c>
-      <c r="E64" s="189">
+      <c r="E64" s="188">
         <v>3992000000</v>
       </c>
-      <c r="G64" s="184" cm="1">
+      <c r="G64" s="183" cm="1">
         <f t="array" ref="G64">E64/VLOOKUP(D64,net_generation!$A:$D,MATCH(C64,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>20.61173470357447</v>
       </c>
-      <c r="H64" s="177" t="s">
+      <c r="H64" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I64" s="181" t="s">
+      <c r="I64" s="180" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="177" customFormat="1">
-      <c r="A65" s="177" t="s">
+    <row r="65" spans="1:9" s="176" customFormat="1">
+      <c r="A65" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="177" t="s">
+      <c r="B65" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="177">
+      <c r="C65" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="176">
         <v>2015</v>
       </c>
-      <c r="E65" s="189">
+      <c r="E65" s="188">
         <v>5327000000</v>
       </c>
-      <c r="G65" s="184" cm="1">
+      <c r="G65" s="183" cm="1">
         <f t="array" ref="G65">E65/VLOOKUP(D65,net_generation!$A:$D,MATCH(C65,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>26.806344411063129</v>
       </c>
-      <c r="H65" s="177" t="s">
+      <c r="H65" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I65" s="181" t="s">
+      <c r="I65" s="180" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="177" customFormat="1">
-      <c r="A66" s="177" t="s">
+    <row r="66" spans="1:9" s="176" customFormat="1">
+      <c r="A66" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="177" t="s">
+      <c r="B66" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="177">
+      <c r="C66" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="176">
         <v>2014</v>
       </c>
-      <c r="E66" s="189">
+      <c r="E66" s="188">
         <v>5602000000</v>
       </c>
-      <c r="G66" s="184" cm="1">
+      <c r="G66" s="183" cm="1">
         <f t="array" ref="G66">E66/VLOOKUP(D66,net_generation!$A:$D,MATCH(C66,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>30.066278002327575</v>
       </c>
-      <c r="H66" s="177" t="s">
+      <c r="H66" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I66" s="181" t="s">
+      <c r="I66" s="180" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="177" customFormat="1">
-      <c r="A67" s="177" t="s">
+    <row r="67" spans="1:9" s="176" customFormat="1">
+      <c r="A67" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="177" t="s">
+      <c r="B67" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="177">
+      <c r="C67" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="176">
         <v>2018</v>
       </c>
-      <c r="E67" s="189">
+      <c r="E67" s="188">
         <v>6831000000</v>
       </c>
-      <c r="G67" s="184" cm="1">
+      <c r="G67" s="183" cm="1">
         <f t="array" ref="G67">E67/VLOOKUP(D67,net_generation!$A:$D,MATCH(C67,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>29.30149960536701</v>
       </c>
-      <c r="H67" s="177" t="s">
+      <c r="H67" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I67" s="181" t="s">
+      <c r="I67" s="180" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="177" customFormat="1">
-      <c r="A68" s="177" t="s">
+    <row r="68" spans="1:9" s="176" customFormat="1">
+      <c r="A68" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="177" t="s">
+      <c r="B68" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="177">
+      <c r="C68" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="176">
         <v>2017</v>
       </c>
-      <c r="E68" s="189">
+      <c r="E68" s="188">
         <v>6350000000</v>
       </c>
-      <c r="G68" s="184" cm="1">
+      <c r="G68" s="183" cm="1">
         <f t="array" ref="G68">E68/VLOOKUP(D68,net_generation!$A:$D,MATCH(C68,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>27.939474737874928</v>
       </c>
-      <c r="H68" s="177" t="s">
+      <c r="H68" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I68" s="181" t="s">
+      <c r="I68" s="180" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="177" customFormat="1">
-      <c r="A69" s="177" t="s">
+    <row r="69" spans="1:9" s="176" customFormat="1">
+      <c r="A69" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="177" t="s">
+      <c r="B69" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="177">
+      <c r="C69" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="176">
         <v>2016</v>
       </c>
-      <c r="E69" s="189">
+      <c r="E69" s="188">
         <v>6625000000</v>
       </c>
-      <c r="G69" s="184" cm="1">
+      <c r="G69" s="183" cm="1">
         <f t="array" ref="G69">E69/VLOOKUP(D69,net_generation!$A:$D,MATCH(C69,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>30.21182479421757</v>
       </c>
-      <c r="H69" s="177" t="s">
+      <c r="H69" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I69" s="181" t="s">
+      <c r="I69" s="180" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="177" customFormat="1">
-      <c r="A70" s="177" t="s">
+    <row r="70" spans="1:9" s="176" customFormat="1">
+      <c r="A70" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="177" t="s">
+      <c r="B70" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="177">
+      <c r="C70" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="176">
         <v>2015</v>
       </c>
-      <c r="E70" s="189">
+      <c r="E70" s="188">
         <v>7355000000</v>
       </c>
-      <c r="G70" s="184" cm="1">
+      <c r="G70" s="183" cm="1">
         <f t="array" ref="G70">E70/VLOOKUP(D70,net_generation!$A:$D,MATCH(C70,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>33.627622657382304</v>
       </c>
-      <c r="H70" s="177" t="s">
+      <c r="H70" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I70" s="181" t="s">
+      <c r="I70" s="180" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="177" customFormat="1">
-      <c r="A71" s="177" t="s">
+    <row r="71" spans="1:9" s="176" customFormat="1">
+      <c r="A71" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="177" t="s">
+      <c r="B71" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="177">
+      <c r="C71" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="176">
         <v>2014</v>
       </c>
-      <c r="E71" s="189">
+      <c r="E71" s="188">
         <v>7732000000</v>
       </c>
-      <c r="G71" s="184" cm="1">
+      <c r="G71" s="183" cm="1">
         <f t="array" ref="G71">E71/VLOOKUP(D71,net_generation!$A:$D,MATCH(C71,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>31.627990689949971</v>
       </c>
-      <c r="H71" s="177" t="s">
+      <c r="H71" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I71" s="181" t="s">
+      <c r="I71" s="180" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="177" customFormat="1">
-      <c r="A72" s="177" t="s">
+    <row r="72" spans="1:9" s="176" customFormat="1">
+      <c r="A72" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="177" t="s">
+      <c r="B72" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="177">
+      <c r="C72" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="176">
         <v>2018</v>
       </c>
-      <c r="E72" s="189">
+      <c r="E72" s="188">
         <v>16670000000</v>
       </c>
-      <c r="G72" s="184" cm="1">
+      <c r="G72" s="183" cm="1">
         <f t="array" ref="G72">E72/VLOOKUP(D72,net_generation!$A:$D,MATCH(C72,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>85.828733833099932</v>
       </c>
-      <c r="H72" s="177" t="s">
+      <c r="H72" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I72" s="181" t="s">
+      <c r="I72" s="180" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="177" customFormat="1">
-      <c r="A73" s="177" t="s">
+    <row r="73" spans="1:9" s="176" customFormat="1">
+      <c r="A73" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="177" t="s">
+      <c r="B73" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="177">
+      <c r="C73" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="176">
         <v>2017</v>
       </c>
-      <c r="E73" s="189">
+      <c r="E73" s="188">
         <v>14035000000</v>
       </c>
-      <c r="G73" s="184" cm="1">
+      <c r="G73" s="183" cm="1">
         <f t="array" ref="G73">E73/VLOOKUP(D73,net_generation!$A:$D,MATCH(C73,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>72.074558582059325</v>
       </c>
-      <c r="H73" s="177" t="s">
+      <c r="H73" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I73" s="181" t="s">
+      <c r="I73" s="180" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="177" customFormat="1">
-      <c r="A74" s="177" t="s">
+    <row r="74" spans="1:9" s="176" customFormat="1">
+      <c r="A74" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="177" t="s">
+      <c r="B74" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="177">
+      <c r="C74" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="176">
         <v>2016</v>
       </c>
-      <c r="E74" s="189">
+      <c r="E74" s="188">
         <v>12640000000</v>
       </c>
-      <c r="G74" s="184" cm="1">
+      <c r="G74" s="183" cm="1">
         <f t="array" ref="G74">E74/VLOOKUP(D74,net_generation!$A:$D,MATCH(C74,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>67.645826176729415</v>
       </c>
-      <c r="H74" s="177" t="s">
+      <c r="H74" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I74" s="181" t="s">
+      <c r="I74" s="180" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="177" customFormat="1">
-      <c r="A75" s="177" t="s">
+    <row r="75" spans="1:9" s="176" customFormat="1">
+      <c r="A75" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="177" t="s">
+      <c r="B75" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="177">
+      <c r="C75" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="176">
         <v>2015</v>
       </c>
-      <c r="E75" s="189">
+      <c r="E75" s="188">
         <f>13084000000</f>
         <v>13084000000</v>
       </c>
-      <c r="G75" s="184" cm="1">
+      <c r="G75" s="183" cm="1">
         <f t="array" ref="G75">E75/VLOOKUP(D75,net_generation!$A:$D,MATCH(C75,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>72.675590609877105</v>
       </c>
-      <c r="H75" s="177" t="s">
+      <c r="H75" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I75" s="181" t="s">
+      <c r="I75" s="180" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="177" customFormat="1">
-      <c r="A76" s="177" t="s">
+    <row r="76" spans="1:9" s="176" customFormat="1">
+      <c r="A76" s="176" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="177" t="s">
+      <c r="B76" s="176" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="177">
+      <c r="C76" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="176">
         <v>2014</v>
       </c>
-      <c r="E76" s="189">
+      <c r="E76" s="188">
         <v>13003000000</v>
       </c>
-      <c r="G76" s="184" cm="1">
+      <c r="G76" s="183" cm="1">
         <f t="array" ref="G76">E76/VLOOKUP(D76,net_generation!$A:$D,MATCH(C76,net_generation!$1:$1,FALSE),FALSE)</f>
         <v>73.062490128181054</v>
       </c>
-      <c r="H76" s="177" t="s">
+      <c r="H76" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="I76" s="181" t="s">
+      <c r="I76" s="180" t="s">
         <v>172</v>
       </c>
     </row>
@@ -45101,453 +45108,453 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="176" customFormat="1">
-      <c r="A92" s="176" t="s">
+    <row r="92" spans="1:9" s="175" customFormat="1">
+      <c r="A92" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="176" t="s">
+      <c r="B92" s="175" t="s">
         <v>175</v>
       </c>
-      <c r="C92" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="176">
+      <c r="C92" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="175">
         <v>2018</v>
       </c>
-      <c r="E92" s="183">
+      <c r="E92" s="182">
         <v>0.31651099999999999</v>
       </c>
-      <c r="F92" s="176" t="s">
+      <c r="F92" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="G92" s="190">
+      <c r="G92" s="189">
         <f t="shared" ref="G92:G106" si="6">E92*100</f>
         <v>31.6511</v>
       </c>
-      <c r="H92" s="176" t="s">
+      <c r="H92" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="I92" s="178" t="s">
+      <c r="I92" s="177" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="177" customFormat="1">
-      <c r="A93" s="177" t="s">
+    <row r="93" spans="1:9" s="176" customFormat="1">
+      <c r="A93" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B93" s="177" t="s">
+      <c r="B93" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="177">
+      <c r="C93" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="176">
         <v>2017</v>
       </c>
-      <c r="E93" s="185">
+      <c r="E93" s="184">
         <v>0.34306399999999998</v>
       </c>
-      <c r="F93" s="177" t="s">
+      <c r="F93" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G93" s="191">
+      <c r="G93" s="190">
         <f t="shared" si="6"/>
         <v>34.306399999999996</v>
       </c>
-      <c r="H93" s="177" t="s">
+      <c r="H93" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I93" s="181" t="s">
+      <c r="I93" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="177" customFormat="1">
-      <c r="A94" s="177" t="s">
+    <row r="94" spans="1:9" s="176" customFormat="1">
+      <c r="A94" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B94" s="177" t="s">
+      <c r="B94" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C94" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="177">
+      <c r="C94" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="176">
         <v>2016</v>
       </c>
-      <c r="E94" s="185">
+      <c r="E94" s="184">
         <v>0.55357100000000004</v>
       </c>
-      <c r="F94" s="177" t="s">
+      <c r="F94" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G94" s="191">
+      <c r="G94" s="190">
         <f t="shared" si="6"/>
         <v>55.357100000000003</v>
       </c>
-      <c r="H94" s="177" t="s">
+      <c r="H94" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I94" s="181" t="s">
+      <c r="I94" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="177" customFormat="1">
-      <c r="A95" s="177" t="s">
+    <row r="95" spans="1:9" s="176" customFormat="1">
+      <c r="A95" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B95" s="177" t="s">
+      <c r="B95" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C95" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="177">
+      <c r="C95" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="176">
         <v>2015</v>
       </c>
-      <c r="E95" s="185">
+      <c r="E95" s="184">
         <v>0.50327</v>
       </c>
-      <c r="F95" s="177" t="s">
+      <c r="F95" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G95" s="191">
+      <c r="G95" s="190">
         <f t="shared" si="6"/>
         <v>50.326999999999998</v>
       </c>
-      <c r="H95" s="177" t="s">
+      <c r="H95" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I95" s="181" t="s">
+      <c r="I95" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="177" customFormat="1">
-      <c r="A96" s="177" t="s">
+    <row r="96" spans="1:9" s="176" customFormat="1">
+      <c r="A96" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="177" t="s">
+      <c r="B96" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C96" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="177">
+      <c r="C96" s="176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="176">
         <v>2014</v>
       </c>
-      <c r="E96" s="185">
+      <c r="E96" s="184">
         <v>0.51156199999999996</v>
       </c>
-      <c r="F96" s="177" t="s">
+      <c r="F96" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G96" s="191">
+      <c r="G96" s="190">
         <f t="shared" si="6"/>
         <v>51.156199999999998</v>
       </c>
-      <c r="H96" s="177" t="s">
+      <c r="H96" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I96" s="181" t="s">
+      <c r="I96" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="177" customFormat="1">
-      <c r="A97" s="177" t="s">
+    <row r="97" spans="1:9" s="176" customFormat="1">
+      <c r="A97" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B97" s="177" t="s">
+      <c r="B97" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="177">
+      <c r="C97" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="176">
         <v>2018</v>
       </c>
-      <c r="E97" s="185">
+      <c r="E97" s="184">
         <v>0.92685700000000004</v>
       </c>
-      <c r="F97" s="177" t="s">
+      <c r="F97" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G97" s="191">
+      <c r="G97" s="190">
         <f t="shared" si="6"/>
         <v>92.685699999999997</v>
       </c>
-      <c r="H97" s="177" t="s">
+      <c r="H97" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I97" s="181" t="s">
+      <c r="I97" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="177" customFormat="1">
-      <c r="A98" s="177" t="s">
+    <row r="98" spans="1:9" s="176" customFormat="1">
+      <c r="A98" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="177" t="s">
+      <c r="B98" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="177">
+      <c r="C98" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="176">
         <v>2017</v>
       </c>
-      <c r="E98" s="185">
+      <c r="E98" s="184">
         <v>0.80091500000000004</v>
       </c>
-      <c r="F98" s="177" t="s">
+      <c r="F98" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G98" s="191">
+      <c r="G98" s="190">
         <f t="shared" si="6"/>
         <v>80.091500000000011</v>
       </c>
-      <c r="H98" s="177" t="s">
+      <c r="H98" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I98" s="181" t="s">
+      <c r="I98" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="177" customFormat="1">
-      <c r="A99" s="177" t="s">
+    <row r="99" spans="1:9" s="176" customFormat="1">
+      <c r="A99" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B99" s="177" t="s">
+      <c r="B99" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="177">
+      <c r="C99" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="176">
         <v>2016</v>
       </c>
-      <c r="E99" s="185">
+      <c r="E99" s="184">
         <v>1.0836429999999999</v>
       </c>
-      <c r="F99" s="177" t="s">
+      <c r="F99" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G99" s="191">
+      <c r="G99" s="190">
         <f t="shared" si="6"/>
         <v>108.36429999999999</v>
       </c>
-      <c r="H99" s="177" t="s">
+      <c r="H99" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I99" s="181" t="s">
+      <c r="I99" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="177" customFormat="1">
-      <c r="A100" s="177" t="s">
+    <row r="100" spans="1:9" s="176" customFormat="1">
+      <c r="A100" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B100" s="177" t="s">
+      <c r="B100" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C100" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="177">
+      <c r="C100" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="176">
         <v>2015</v>
       </c>
-      <c r="E100" s="185">
+      <c r="E100" s="184">
         <v>0.80042599999999997</v>
       </c>
-      <c r="F100" s="177" t="s">
+      <c r="F100" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G100" s="191">
+      <c r="G100" s="190">
         <f t="shared" si="6"/>
         <v>80.042599999999993</v>
       </c>
-      <c r="H100" s="177" t="s">
+      <c r="H100" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I100" s="181" t="s">
+      <c r="I100" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="177" customFormat="1">
-      <c r="A101" s="177" t="s">
+    <row r="101" spans="1:9" s="176" customFormat="1">
+      <c r="A101" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B101" s="177" t="s">
+      <c r="B101" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C101" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" s="177">
+      <c r="C101" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="176">
         <v>2014</v>
       </c>
-      <c r="E101" s="185">
+      <c r="E101" s="184">
         <v>1.1864049999999999</v>
       </c>
-      <c r="F101" s="177" t="s">
+      <c r="F101" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G101" s="191">
+      <c r="G101" s="190">
         <f t="shared" si="6"/>
         <v>118.64049999999999</v>
       </c>
-      <c r="H101" s="177" t="s">
+      <c r="H101" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I101" s="181" t="s">
+      <c r="I101" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="177" customFormat="1">
-      <c r="A102" s="177" t="s">
+    <row r="102" spans="1:9" s="176" customFormat="1">
+      <c r="A102" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="177" t="s">
+      <c r="B102" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C102" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="177">
+      <c r="C102" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="176">
         <v>2018</v>
       </c>
-      <c r="E102" s="185">
+      <c r="E102" s="184">
         <v>3.3467340000000001</v>
       </c>
-      <c r="F102" s="177" t="s">
+      <c r="F102" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G102" s="191">
+      <c r="G102" s="190">
         <f t="shared" si="6"/>
         <v>334.67340000000002</v>
       </c>
-      <c r="H102" s="177" t="s">
+      <c r="H102" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I102" s="181" t="s">
+      <c r="I102" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="177" customFormat="1">
-      <c r="A103" s="177" t="s">
+    <row r="103" spans="1:9" s="176" customFormat="1">
+      <c r="A103" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B103" s="177" t="s">
+      <c r="B103" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C103" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="177">
+      <c r="C103" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="176">
         <v>2017</v>
       </c>
-      <c r="E103" s="185">
+      <c r="E103" s="184">
         <v>0.45879700000000001</v>
       </c>
-      <c r="F103" s="177" t="s">
+      <c r="F103" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G103" s="191">
+      <c r="G103" s="190">
         <f t="shared" si="6"/>
         <v>45.8797</v>
       </c>
-      <c r="H103" s="177" t="s">
+      <c r="H103" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I103" s="181" t="s">
+      <c r="I103" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="177" customFormat="1">
-      <c r="A104" s="177" t="s">
+    <row r="104" spans="1:9" s="176" customFormat="1">
+      <c r="A104" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B104" s="177" t="s">
+      <c r="B104" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C104" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="177">
+      <c r="C104" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="176">
         <v>2016</v>
       </c>
-      <c r="E104" s="185">
+      <c r="E104" s="184">
         <v>1.028219</v>
       </c>
-      <c r="F104" s="177" t="s">
+      <c r="F104" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G104" s="191">
+      <c r="G104" s="190">
         <f t="shared" si="6"/>
         <v>102.8219</v>
       </c>
-      <c r="H104" s="177" t="s">
+      <c r="H104" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I104" s="181" t="s">
+      <c r="I104" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="177" customFormat="1">
-      <c r="A105" s="177" t="s">
+    <row r="105" spans="1:9" s="176" customFormat="1">
+      <c r="A105" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B105" s="177" t="s">
+      <c r="B105" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C105" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="177">
+      <c r="C105" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="176">
         <v>2015</v>
       </c>
-      <c r="E105" s="185">
+      <c r="E105" s="184">
         <v>0.48699900000000002</v>
       </c>
-      <c r="F105" s="177" t="s">
+      <c r="F105" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G105" s="191">
+      <c r="G105" s="190">
         <f t="shared" si="6"/>
         <v>48.6999</v>
       </c>
-      <c r="H105" s="177" t="s">
+      <c r="H105" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I105" s="181" t="s">
+      <c r="I105" s="180" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="177" customFormat="1">
-      <c r="A106" s="177" t="s">
+    <row r="106" spans="1:9" s="176" customFormat="1">
+      <c r="A106" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="B106" s="177" t="s">
+      <c r="B106" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="C106" s="177" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="177">
+      <c r="C106" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="176">
         <v>2014</v>
       </c>
-      <c r="E106" s="185">
+      <c r="E106" s="184">
         <v>0.656192</v>
       </c>
-      <c r="F106" s="177" t="s">
+      <c r="F106" s="176" t="s">
         <v>244</v>
       </c>
-      <c r="G106" s="191">
+      <c r="G106" s="190">
         <f t="shared" si="6"/>
         <v>65.619200000000006</v>
       </c>
-      <c r="H106" s="177" t="s">
+      <c r="H106" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="I106" s="181" t="s">
+      <c r="I106" s="180" t="s">
         <v>159</v>
       </c>
     </row>
@@ -48811,7 +48818,7 @@
       <c r="D8" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="192" t="s">
+      <c r="E8" s="191" t="s">
         <v>251</v>
       </c>
     </row>
@@ -49220,10 +49227,10 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="192" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="60" t="s">
@@ -49237,8 +49244,8 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="197"/>
-      <c r="B3" s="194"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="193"/>
       <c r="C3" s="60" t="s">
         <v>10</v>
       </c>
@@ -49250,8 +49257,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="197"/>
-      <c r="B4" s="193" t="s">
+      <c r="A4" s="196"/>
+      <c r="B4" s="192" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="60" t="s">
@@ -49265,8 +49272,8 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="197"/>
-      <c r="B5" s="195"/>
+      <c r="A5" s="196"/>
+      <c r="B5" s="194"/>
       <c r="C5" s="60" t="s">
         <v>40</v>
       </c>
@@ -49278,8 +49285,8 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="197"/>
-      <c r="B6" s="195"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="194"/>
       <c r="C6" s="60" t="s">
         <v>110</v>
       </c>
@@ -49288,8 +49295,8 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="197"/>
-      <c r="B7" s="194"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="193"/>
       <c r="C7" s="60" t="s">
         <v>120</v>
       </c>
@@ -49298,7 +49305,7 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="198"/>
+      <c r="A8" s="197"/>
       <c r="B8" s="59" t="s">
         <v>199</v>
       </c>
@@ -49310,10 +49317,10 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="195" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="192" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="60" t="s">
@@ -49324,8 +49331,8 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="197"/>
-      <c r="B10" s="194"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="60" t="s">
         <v>128</v>
       </c>
@@ -49334,8 +49341,8 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="197"/>
-      <c r="B11" s="193" t="s">
+      <c r="A11" s="196"/>
+      <c r="B11" s="192" t="s">
         <v>135</v>
       </c>
       <c r="C11" s="60" t="s">
@@ -49346,8 +49353,8 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="197"/>
-      <c r="B12" s="195"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="194"/>
       <c r="C12" s="60" t="s">
         <v>143</v>
       </c>
@@ -49356,8 +49363,8 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="197"/>
-      <c r="B13" s="194"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="193"/>
       <c r="C13" s="60" t="s">
         <v>145</v>
       </c>
@@ -49366,8 +49373,8 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="197"/>
-      <c r="B14" s="193" t="s">
+      <c r="A14" s="196"/>
+      <c r="B14" s="192" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -49378,8 +49385,8 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="198"/>
-      <c r="B15" s="194"/>
+      <c r="A15" s="197"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="60" t="s">
         <v>155</v>
       </c>
@@ -49388,10 +49395,10 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="195" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="192" t="s">
         <v>157</v>
       </c>
       <c r="C16" s="60" t="s">
@@ -49403,8 +49410,8 @@
       <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6" ht="15.6">
-      <c r="A17" s="197"/>
-      <c r="B17" s="194"/>
+      <c r="A17" s="196"/>
+      <c r="B17" s="193"/>
       <c r="C17" s="60" t="s">
         <v>203</v>
       </c>
@@ -49414,8 +49421,8 @@
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="197"/>
-      <c r="B18" s="193" t="s">
+      <c r="A18" s="196"/>
+      <c r="B18" s="192" t="s">
         <v>161</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -49427,8 +49434,8 @@
       <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="197"/>
-      <c r="B19" s="195"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="194"/>
       <c r="C19" s="60" t="s">
         <v>163</v>
       </c>
@@ -49437,8 +49444,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="197"/>
-      <c r="B20" s="194"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="193"/>
       <c r="C20" s="60" t="s">
         <v>164</v>
       </c>
@@ -49447,8 +49454,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="197"/>
-      <c r="B21" s="193" t="s">
+      <c r="A21" s="196"/>
+      <c r="B21" s="192" t="s">
         <v>173</v>
       </c>
       <c r="C21" s="60" t="s">
@@ -49459,8 +49466,8 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="198"/>
-      <c r="B22" s="194"/>
+      <c r="A22" s="197"/>
+      <c r="B22" s="193"/>
       <c r="C22" s="60" t="s">
         <v>175</v>
       </c>
